--- a/Standard_Library_TestCasePromotionUtil.xlsx
+++ b/Standard_Library_TestCasePromotionUtil.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Test Environment</t>
   </si>
@@ -121,6 +121,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>unitTest001</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -137,6 +140,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t xml:space="preserve">return the WTObject of WTDocument 
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>Test Results (Expected Results)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -145,12 +153,62 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>wt.doc.WTDocument:…</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>BaiJuan-juan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Input Information</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPartByNoAndView(String partNo, String viewName)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(getPartByNoAndView("0000000183", "Manufacturing111"));</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(getPartByNoAndView("0000000183", "Manufacturing"));</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:input the all validate of Part.                                                                                                                                                                           
+2:set the value of "accessControlled" to "right" value                                                                                                                                                                 </t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>“试图无效”</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>return null</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>System.out.println(getPartByNoAndView("0000000184", "Manufacturing111"));</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>input wrong  Number information.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1:input the all validate of part.
+2:input wrong view.</t>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>unitTest002</t>
@@ -182,80 +240,6 @@
   </si>
   <si>
     <t>PromotionUtil</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>getWTContainerref(WTContainer wtcontainer)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                </t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>createPromotionRequest(String number, String name, String objType, String desciption, WTContainer container, Folder folder, String targetState, Map&lt;String, Object&gt; mbaMap)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>we can see in the page.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> WTContainer wtcontainer = DocUtil.getWtContainerByName("huaqin");     
-   System.out.println("@@@@@@@@@@@@@@@"+getWTContainerref(wtcontainer));
-   System.out.println("******************************************");
-   String path = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试产品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /test_BJJ";
-   Folder folder = FolderUtil.getFolder(wtcontainer, path);
-   Map&lt;String, Object&gt; map=new HashMap&lt;String,Object&gt;();
-   WTDocument value = DocUtil.getDoc("1001", false);
-         map.put("number",value);
-   createPromotionRequest("1002", "bjj_createPromotionRequest", "wt.maturity.PromotionNotice", path, wtcontainer, folder , "INWORK", map);
-   </t>
-    </r>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1385,55 +1369,55 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1996,10 +1980,10 @@
     <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2047,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2070,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2106,7 +2090,7 @@
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2166,13 +2150,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>4</v>
@@ -2181,86 +2165,106 @@
         <v>5</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="56" customFormat="1" ht="60" customHeight="1">
-      <c r="B7" s="93">
+      <c r="B7" s="92">
         <v>1</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="92" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="57" t="s">
+      <c r="J7" s="57">
+        <v>20160905</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="56" customFormat="1" ht="60" customHeight="1">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="95"/>
+      <c r="F8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="57">
+        <v>20160905</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="56" customFormat="1" ht="51" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="57">
+        <v>20160905</v>
+      </c>
+      <c r="K9" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" s="56" customFormat="1" ht="60" customHeight="1">
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" s="56" customFormat="1" ht="51" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1" ht="45" customHeight="1">
-      <c r="B10" s="93">
-        <v>2</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>28</v>
-      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="58"/>
       <c r="I10" s="30"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="95"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="90"/>
       <c r="D11" s="44"/>
       <c r="E11" s="90"/>
@@ -2272,10 +2276,10 @@
       <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" s="27" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B12" s="93"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="92"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="45"/>
       <c r="G12" s="35"/>
       <c r="H12" s="58"/>
@@ -2284,8 +2288,8 @@
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" s="27" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="44"/>
       <c r="E13" s="90"/>
       <c r="F13" s="45"/>
@@ -2296,10 +2300,10 @@
       <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B14" s="93"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="92"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="45"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -2308,7 +2312,7 @@
       <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B15" s="95"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="90"/>
       <c r="D15" s="44"/>
       <c r="E15" s="90"/>
@@ -2320,10 +2324,10 @@
       <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11" s="48" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B16" s="93"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="92"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -2332,7 +2336,7 @@
       <c r="K16" s="54"/>
     </row>
     <row r="17" spans="2:11" s="27" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B17" s="95"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="90"/>
       <c r="D17" s="44"/>
       <c r="E17" s="90"/>
@@ -2344,10 +2348,10 @@
       <c r="K17" s="39"/>
     </row>
     <row r="18" spans="2:11" s="27" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="92"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="45"/>
       <c r="G18" s="35"/>
       <c r="H18" s="58"/>
@@ -2356,7 +2360,7 @@
       <c r="K18" s="39"/>
     </row>
     <row r="19" spans="2:11" s="27" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B19" s="95"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="90"/>
       <c r="D19" s="44"/>
       <c r="E19" s="90"/>
@@ -2368,11 +2372,11 @@
       <c r="K19" s="39"/>
     </row>
     <row r="20" spans="2:11" s="27" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B20" s="93"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="89"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="38"/>
@@ -2380,7 +2384,7 @@
       <c r="K20" s="39"/>
     </row>
     <row r="21" spans="2:11" s="27" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B21" s="95"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="90"/>
       <c r="D21" s="44"/>
       <c r="E21" s="90"/>
@@ -2392,10 +2396,10 @@
       <c r="K21" s="39"/>
     </row>
     <row r="22" spans="2:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B22" s="93"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="92"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="45"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
@@ -2404,7 +2408,7 @@
       <c r="K22" s="39"/>
     </row>
     <row r="23" spans="2:11" s="27" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B23" s="95"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="90"/>
       <c r="D23" s="44"/>
       <c r="E23" s="90"/>
@@ -2416,10 +2420,10 @@
       <c r="K23" s="39"/>
     </row>
     <row r="24" spans="2:11" s="27" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="B24" s="93"/>
-      <c r="C24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="92"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="45"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
@@ -2428,7 +2432,7 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="2:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B25" s="95"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="90"/>
       <c r="D25" s="44"/>
       <c r="E25" s="90"/>
@@ -2440,10 +2444,10 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B26" s="93"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="92"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="45"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
@@ -2452,7 +2456,7 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B27" s="95"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="90"/>
       <c r="D27" s="44"/>
       <c r="E27" s="90"/>
@@ -2464,10 +2468,10 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B28" s="93"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="92"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="45"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
@@ -2476,7 +2480,7 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B29" s="95"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="90"/>
       <c r="D29" s="44"/>
       <c r="E29" s="90"/>
@@ -2488,10 +2492,10 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B30" s="93"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="92"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="45"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
@@ -2500,7 +2504,7 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B31" s="95"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="90"/>
       <c r="D31" s="44"/>
       <c r="E31" s="90"/>
@@ -2512,10 +2516,10 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B32" s="93"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="92"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="45"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
@@ -2524,7 +2528,7 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B33" s="95"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="90"/>
       <c r="D33" s="44"/>
       <c r="E33" s="90"/>
@@ -2536,10 +2540,10 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B34" s="93"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="92"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="45"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -2548,7 +2552,7 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B35" s="95"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="90"/>
       <c r="D35" s="44"/>
       <c r="E35" s="90"/>
@@ -2560,10 +2564,10 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B36" s="93"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="92"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="45"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
@@ -2572,7 +2576,7 @@
       <c r="K36" s="39"/>
     </row>
     <row r="37" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B37" s="95"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="90"/>
       <c r="D37" s="44"/>
       <c r="E37" s="90"/>
@@ -2584,10 +2588,10 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B38" s="93"/>
-      <c r="C38" s="91"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="92"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="63"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
@@ -2596,7 +2600,7 @@
       <c r="K38" s="39"/>
     </row>
     <row r="39" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B39" s="95"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="90"/>
       <c r="D39" s="44"/>
       <c r="E39" s="90"/>
@@ -2608,10 +2612,10 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B40" s="93"/>
-      <c r="C40" s="91"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="92"/>
+      <c r="E40" s="96"/>
       <c r="F40" s="45"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
@@ -2620,7 +2624,7 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B41" s="95"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="90"/>
       <c r="D41" s="44"/>
       <c r="E41" s="90"/>
@@ -2632,10 +2636,10 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B42" s="93"/>
-      <c r="C42" s="91"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="92"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="45"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -2644,7 +2648,7 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B43" s="95"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="90"/>
       <c r="D43" s="44"/>
       <c r="E43" s="90"/>
@@ -2656,10 +2660,10 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="91"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="92"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="45"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
@@ -2668,7 +2672,7 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B45" s="95"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="90"/>
       <c r="D45" s="44"/>
       <c r="E45" s="90"/>
@@ -2680,10 +2684,10 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B46" s="93"/>
-      <c r="C46" s="91"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="92"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="45"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
@@ -2692,7 +2696,7 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B47" s="95"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="90"/>
       <c r="D47" s="44"/>
       <c r="E47" s="90"/>
@@ -2704,10 +2708,10 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B48" s="93"/>
-      <c r="C48" s="91"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="92"/>
+      <c r="E48" s="96"/>
       <c r="F48" s="45"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
@@ -2716,7 +2720,7 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B49" s="95"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="90"/>
       <c r="D49" s="44"/>
       <c r="E49" s="90"/>
@@ -2728,10 +2732,10 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B50" s="93"/>
-      <c r="C50" s="91"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="44"/>
-      <c r="E50" s="92"/>
+      <c r="E50" s="96"/>
       <c r="F50" s="45"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
@@ -2740,7 +2744,7 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B51" s="95"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="90"/>
       <c r="D51" s="44"/>
       <c r="E51" s="90"/>
@@ -2752,10 +2756,10 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B52" s="93"/>
-      <c r="C52" s="91"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="92"/>
+      <c r="E52" s="96"/>
       <c r="F52" s="45"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
@@ -2764,7 +2768,7 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B53" s="95"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="90"/>
       <c r="D53" s="44"/>
       <c r="E53" s="90"/>
@@ -2776,10 +2780,10 @@
       <c r="K53" s="39"/>
     </row>
     <row r="54" spans="2:11" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B54" s="93"/>
-      <c r="C54" s="100"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="77"/>
-      <c r="E54" s="98"/>
+      <c r="E54" s="100"/>
       <c r="F54" s="78"/>
       <c r="G54" s="79"/>
       <c r="H54" s="79"/>
@@ -2788,7 +2792,7 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="2:11" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B55" s="101"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="99"/>
       <c r="D55" s="77"/>
       <c r="E55" s="99"/>
@@ -2800,10 +2804,10 @@
       <c r="K55" s="82"/>
     </row>
     <row r="56" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B56" s="93"/>
-      <c r="C56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="44"/>
-      <c r="E56" s="92"/>
+      <c r="E56" s="96"/>
       <c r="F56" s="45"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -2812,7 +2816,7 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B57" s="95"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="90"/>
       <c r="D57" s="44"/>
       <c r="E57" s="90"/>
@@ -2824,10 +2828,10 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B58" s="93"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="44"/>
-      <c r="E58" s="92"/>
+      <c r="E58" s="96"/>
       <c r="F58" s="45"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -2836,7 +2840,7 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B59" s="95"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="90"/>
       <c r="D59" s="44"/>
       <c r="E59" s="90"/>
@@ -2848,10 +2852,10 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B60" s="93"/>
-      <c r="C60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="92"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="45"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
@@ -2860,7 +2864,7 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B61" s="95"/>
+      <c r="B61" s="93"/>
       <c r="C61" s="90"/>
       <c r="D61" s="44"/>
       <c r="E61" s="90"/>
@@ -2872,10 +2876,10 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B62" s="93"/>
-      <c r="C62" s="91"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="92"/>
+      <c r="E62" s="96"/>
       <c r="F62" s="45"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
@@ -2884,7 +2888,7 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="2:11" s="72" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B63" s="95"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="90"/>
       <c r="D63" s="67"/>
       <c r="E63" s="90"/>
@@ -2896,10 +2900,10 @@
       <c r="K63" s="71"/>
     </row>
     <row r="64" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B64" s="93"/>
-      <c r="C64" s="91"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="73"/>
-      <c r="E64" s="92"/>
+      <c r="E64" s="96"/>
       <c r="F64" s="74"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
@@ -2908,7 +2912,7 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" s="27" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B65" s="95"/>
+      <c r="B65" s="93"/>
       <c r="C65" s="90"/>
       <c r="D65" s="44"/>
       <c r="E65" s="90"/>
@@ -2920,10 +2924,10 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B66" s="93"/>
-      <c r="C66" s="91"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="77"/>
-      <c r="E66" s="92"/>
+      <c r="E66" s="96"/>
       <c r="F66" s="78"/>
       <c r="G66" s="79"/>
       <c r="H66" s="79"/>
@@ -2932,7 +2936,7 @@
       <c r="K66" s="82"/>
     </row>
     <row r="67" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B67" s="95"/>
+      <c r="B67" s="93"/>
       <c r="C67" s="90"/>
       <c r="D67" s="44"/>
       <c r="E67" s="90"/>
@@ -2944,10 +2948,10 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="91"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="92"/>
+      <c r="E68" s="96"/>
       <c r="F68" s="45"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
@@ -2956,7 +2960,7 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B69" s="95"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="90"/>
       <c r="D69" s="44"/>
       <c r="E69" s="90"/>
@@ -2968,10 +2972,10 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B70" s="93"/>
-      <c r="C70" s="91"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="92"/>
+      <c r="E70" s="96"/>
       <c r="F70" s="45"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
@@ -2980,7 +2984,7 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B71" s="95"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="90"/>
       <c r="D71" s="44"/>
       <c r="E71" s="90"/>
@@ -2992,7 +2996,7 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B72" s="93"/>
+      <c r="B72" s="92"/>
       <c r="C72" s="64"/>
       <c r="D72" s="44"/>
       <c r="E72" s="65"/>
@@ -3004,7 +3008,7 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B73" s="95"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="75"/>
       <c r="D73" s="44"/>
       <c r="E73" s="76"/>
@@ -3016,10 +3020,10 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B74" s="93"/>
-      <c r="C74" s="91"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="92"/>
+      <c r="E74" s="96"/>
       <c r="F74" s="45"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
@@ -3029,7 +3033,7 @@
     </row>
     <row r="75" spans="1:11" ht="13.5" thickBot="1">
       <c r="A75" s="27"/>
-      <c r="B75" s="95"/>
+      <c r="B75" s="93"/>
       <c r="C75" s="90"/>
       <c r="D75" s="44"/>
       <c r="E75" s="90"/>
@@ -3042,10 +3046,10 @@
     </row>
     <row r="76" spans="1:11" ht="13.5" thickBot="1">
       <c r="A76" s="27"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="91"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="92"/>
+      <c r="E76" s="96"/>
       <c r="F76" s="45"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
@@ -3055,7 +3059,7 @@
     </row>
     <row r="77" spans="1:11" ht="13.5" thickBot="1">
       <c r="A77" s="27"/>
-      <c r="B77" s="95"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="90"/>
       <c r="D77" s="44"/>
       <c r="E77" s="90"/>
@@ -3067,10 +3071,10 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B78" s="93"/>
-      <c r="C78" s="91"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="92"/>
+      <c r="E78" s="96"/>
       <c r="F78" s="45"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
@@ -3079,7 +3083,7 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="13.5" thickBot="1">
-      <c r="B79" s="95"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="90"/>
       <c r="D79" s="44"/>
       <c r="E79" s="90"/>
@@ -3091,10 +3095,10 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B80" s="93"/>
-      <c r="C80" s="91"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="44"/>
-      <c r="E80" s="92"/>
+      <c r="E80" s="96"/>
       <c r="F80" s="45"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
@@ -3103,7 +3107,7 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B81" s="95"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="90"/>
       <c r="D81" s="44"/>
       <c r="E81" s="90"/>
@@ -3115,10 +3119,10 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B82" s="93"/>
-      <c r="C82" s="91"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="44"/>
-      <c r="E82" s="92"/>
+      <c r="E82" s="96"/>
       <c r="F82" s="45"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
@@ -3127,7 +3131,7 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B83" s="95"/>
+      <c r="B83" s="93"/>
       <c r="C83" s="90"/>
       <c r="D83" s="44"/>
       <c r="E83" s="90"/>
@@ -3139,10 +3143,10 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B84" s="93"/>
-      <c r="C84" s="91"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="92"/>
+      <c r="E84" s="96"/>
       <c r="F84" s="45"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
@@ -3151,7 +3155,7 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B85" s="95"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="90"/>
       <c r="D85" s="44"/>
       <c r="E85" s="90"/>
@@ -3163,10 +3167,10 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="2:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B86" s="93"/>
-      <c r="C86" s="91"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="44"/>
-      <c r="E86" s="92"/>
+      <c r="E86" s="96"/>
       <c r="F86" s="45"/>
       <c r="G86" s="84"/>
       <c r="H86" s="35"/>
@@ -3175,7 +3179,7 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="2:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B87" s="95"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="90"/>
       <c r="D87" s="44"/>
       <c r="E87" s="90"/>
@@ -3187,10 +3191,10 @@
       <c r="K87" s="39"/>
     </row>
     <row r="88" spans="2:11" ht="39" customHeight="1" thickBot="1">
-      <c r="B88" s="93"/>
-      <c r="C88" s="91"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="92"/>
+      <c r="E88" s="96"/>
       <c r="F88" s="45"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
@@ -3199,7 +3203,7 @@
       <c r="K88" s="39"/>
     </row>
     <row r="89" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B89" s="95"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="90"/>
       <c r="D89" s="44"/>
       <c r="E89" s="90"/>
@@ -3211,10 +3215,10 @@
       <c r="K89" s="39"/>
     </row>
     <row r="90" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B90" s="93"/>
-      <c r="C90" s="91"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="89"/>
       <c r="D90" s="44"/>
-      <c r="E90" s="92"/>
+      <c r="E90" s="96"/>
       <c r="F90" s="45"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
@@ -3223,7 +3227,7 @@
       <c r="K90" s="39"/>
     </row>
     <row r="91" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B91" s="95"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="90"/>
       <c r="D91" s="44"/>
       <c r="E91" s="90"/>
@@ -3235,10 +3239,10 @@
       <c r="K91" s="39"/>
     </row>
     <row r="92" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B92" s="93"/>
-      <c r="C92" s="91"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="44"/>
-      <c r="E92" s="92"/>
+      <c r="E92" s="96"/>
       <c r="F92" s="45"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
@@ -3247,7 +3251,7 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B93" s="95"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="90"/>
       <c r="D93" s="44"/>
       <c r="E93" s="90"/>
@@ -3259,10 +3263,10 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B94" s="93"/>
-      <c r="C94" s="91"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="44"/>
-      <c r="E94" s="92"/>
+      <c r="E94" s="96"/>
       <c r="F94" s="45"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
@@ -3271,7 +3275,7 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B95" s="95"/>
+      <c r="B95" s="93"/>
       <c r="C95" s="90"/>
       <c r="D95" s="44"/>
       <c r="E95" s="90"/>
@@ -3283,10 +3287,10 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B96" s="93"/>
-      <c r="C96" s="91"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="89"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="92"/>
+      <c r="E96" s="96"/>
       <c r="F96" s="45"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
@@ -3295,7 +3299,7 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B97" s="95"/>
+      <c r="B97" s="93"/>
       <c r="C97" s="90"/>
       <c r="D97" s="44"/>
       <c r="E97" s="90"/>
@@ -3307,10 +3311,10 @@
       <c r="K97" s="39"/>
     </row>
     <row r="98" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B98" s="93"/>
-      <c r="C98" s="91"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="44"/>
-      <c r="E98" s="92"/>
+      <c r="E98" s="96"/>
       <c r="F98" s="45"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
@@ -3319,7 +3323,7 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B99" s="95"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="90"/>
       <c r="D99" s="44"/>
       <c r="E99" s="90"/>
@@ -3331,10 +3335,10 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B100" s="93"/>
-      <c r="C100" s="91"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="44"/>
-      <c r="E100" s="92"/>
+      <c r="E100" s="96"/>
       <c r="F100" s="45"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
@@ -3343,7 +3347,7 @@
       <c r="K100" s="39"/>
     </row>
     <row r="101" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B101" s="95"/>
+      <c r="B101" s="93"/>
       <c r="C101" s="90"/>
       <c r="D101" s="44"/>
       <c r="E101" s="90"/>
@@ -3355,10 +3359,10 @@
       <c r="K101" s="39"/>
     </row>
     <row r="102" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B102" s="93"/>
-      <c r="C102" s="91"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="89"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="92"/>
+      <c r="E102" s="96"/>
       <c r="F102" s="45"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
@@ -3367,7 +3371,7 @@
       <c r="K102" s="39"/>
     </row>
     <row r="103" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B103" s="95"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="90"/>
       <c r="D103" s="44"/>
       <c r="E103" s="90"/>
@@ -3379,10 +3383,10 @@
       <c r="K103" s="39"/>
     </row>
     <row r="104" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B104" s="93"/>
-      <c r="C104" s="91"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="44"/>
-      <c r="E104" s="92"/>
+      <c r="E104" s="96"/>
       <c r="F104" s="45"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -3391,7 +3395,7 @@
       <c r="K104" s="39"/>
     </row>
     <row r="105" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B105" s="95"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="90"/>
       <c r="D105" s="44"/>
       <c r="E105" s="90"/>
@@ -3403,10 +3407,10 @@
       <c r="K105" s="39"/>
     </row>
     <row r="106" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B106" s="93"/>
-      <c r="C106" s="91"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="44"/>
-      <c r="E106" s="92"/>
+      <c r="E106" s="96"/>
       <c r="F106" s="45"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
@@ -3415,7 +3419,7 @@
       <c r="K106" s="39"/>
     </row>
     <row r="107" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B107" s="95"/>
+      <c r="B107" s="93"/>
       <c r="C107" s="90"/>
       <c r="D107" s="44"/>
       <c r="E107" s="90"/>
@@ -3427,10 +3431,10 @@
       <c r="K107" s="39"/>
     </row>
     <row r="108" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B108" s="93"/>
-      <c r="C108" s="91"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="89"/>
       <c r="D108" s="44"/>
-      <c r="E108" s="92"/>
+      <c r="E108" s="96"/>
       <c r="F108" s="45"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
@@ -3439,7 +3443,7 @@
       <c r="K108" s="39"/>
     </row>
     <row r="109" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B109" s="95"/>
+      <c r="B109" s="93"/>
       <c r="C109" s="90"/>
       <c r="D109" s="44"/>
       <c r="E109" s="90"/>
@@ -3451,10 +3455,10 @@
       <c r="K109" s="39"/>
     </row>
     <row r="110" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B110" s="93"/>
-      <c r="C110" s="91"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="89"/>
       <c r="D110" s="44"/>
-      <c r="E110" s="92"/>
+      <c r="E110" s="96"/>
       <c r="F110" s="45"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
@@ -3463,7 +3467,7 @@
       <c r="K110" s="39"/>
     </row>
     <row r="111" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B111" s="95"/>
+      <c r="B111" s="93"/>
       <c r="C111" s="90"/>
       <c r="D111" s="44"/>
       <c r="E111" s="90"/>
@@ -3475,10 +3479,10 @@
       <c r="K111" s="39"/>
     </row>
     <row r="112" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B112" s="93"/>
-      <c r="C112" s="91"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="89"/>
       <c r="D112" s="44"/>
-      <c r="E112" s="92"/>
+      <c r="E112" s="96"/>
       <c r="F112" s="45"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
@@ -3487,7 +3491,7 @@
       <c r="K112" s="39"/>
     </row>
     <row r="113" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B113" s="95"/>
+      <c r="B113" s="93"/>
       <c r="C113" s="90"/>
       <c r="D113" s="44"/>
       <c r="E113" s="90"/>
@@ -3499,10 +3503,10 @@
       <c r="K113" s="39"/>
     </row>
     <row r="114" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B114" s="93"/>
-      <c r="C114" s="91"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="89"/>
       <c r="D114" s="44"/>
-      <c r="E114" s="92"/>
+      <c r="E114" s="96"/>
       <c r="F114" s="45"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
@@ -3511,7 +3515,7 @@
       <c r="K114" s="39"/>
     </row>
     <row r="115" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B115" s="95"/>
+      <c r="B115" s="93"/>
       <c r="C115" s="90"/>
       <c r="D115" s="44"/>
       <c r="E115" s="90"/>
@@ -3523,10 +3527,10 @@
       <c r="K115" s="39"/>
     </row>
     <row r="116" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B116" s="93"/>
-      <c r="C116" s="91"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="44"/>
-      <c r="E116" s="92"/>
+      <c r="E116" s="96"/>
       <c r="F116" s="45"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
@@ -3535,7 +3539,7 @@
       <c r="K116" s="39"/>
     </row>
     <row r="117" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B117" s="95"/>
+      <c r="B117" s="93"/>
       <c r="C117" s="90"/>
       <c r="D117" s="44"/>
       <c r="E117" s="90"/>
@@ -3547,10 +3551,10 @@
       <c r="K117" s="39"/>
     </row>
     <row r="118" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B118" s="93"/>
-      <c r="C118" s="91"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="44"/>
-      <c r="E118" s="92"/>
+      <c r="E118" s="96"/>
       <c r="F118" s="45"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
@@ -3559,7 +3563,7 @@
       <c r="K118" s="39"/>
     </row>
     <row r="119" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B119" s="95"/>
+      <c r="B119" s="93"/>
       <c r="C119" s="90"/>
       <c r="D119" s="44"/>
       <c r="E119" s="90"/>
@@ -3571,10 +3575,10 @@
       <c r="K119" s="39"/>
     </row>
     <row r="120" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B120" s="93"/>
-      <c r="C120" s="91"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="44"/>
-      <c r="E120" s="92"/>
+      <c r="E120" s="96"/>
       <c r="F120" s="45"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
@@ -3583,7 +3587,7 @@
       <c r="K120" s="39"/>
     </row>
     <row r="121" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B121" s="95"/>
+      <c r="B121" s="93"/>
       <c r="C121" s="90"/>
       <c r="D121" s="44"/>
       <c r="E121" s="90"/>
@@ -3595,10 +3599,10 @@
       <c r="K121" s="39"/>
     </row>
     <row r="122" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B122" s="93"/>
-      <c r="C122" s="91"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="89"/>
       <c r="D122" s="44"/>
-      <c r="E122" s="92"/>
+      <c r="E122" s="96"/>
       <c r="F122" s="45"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
@@ -3607,7 +3611,7 @@
       <c r="K122" s="39"/>
     </row>
     <row r="123" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B123" s="95"/>
+      <c r="B123" s="93"/>
       <c r="C123" s="90"/>
       <c r="D123" s="44"/>
       <c r="E123" s="90"/>
@@ -3619,10 +3623,10 @@
       <c r="K123" s="39"/>
     </row>
     <row r="124" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B124" s="93"/>
-      <c r="C124" s="91"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="89"/>
       <c r="D124" s="44"/>
-      <c r="E124" s="92"/>
+      <c r="E124" s="96"/>
       <c r="F124" s="45"/>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
@@ -3631,7 +3635,7 @@
       <c r="K124" s="39"/>
     </row>
     <row r="125" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B125" s="95"/>
+      <c r="B125" s="93"/>
       <c r="C125" s="90"/>
       <c r="D125" s="44"/>
       <c r="E125" s="90"/>
@@ -3643,10 +3647,10 @@
       <c r="K125" s="39"/>
     </row>
     <row r="126" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B126" s="93"/>
-      <c r="C126" s="91"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="89"/>
       <c r="D126" s="44"/>
-      <c r="E126" s="92"/>
+      <c r="E126" s="96"/>
       <c r="F126" s="45"/>
       <c r="G126" s="35"/>
       <c r="H126" s="35"/>
@@ -3655,7 +3659,7 @@
       <c r="K126" s="39"/>
     </row>
     <row r="127" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B127" s="95"/>
+      <c r="B127" s="93"/>
       <c r="C127" s="90"/>
       <c r="D127" s="44"/>
       <c r="E127" s="90"/>
@@ -3667,10 +3671,10 @@
       <c r="K127" s="39"/>
     </row>
     <row r="128" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B128" s="93"/>
-      <c r="C128" s="91"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="89"/>
       <c r="D128" s="44"/>
-      <c r="E128" s="92"/>
+      <c r="E128" s="96"/>
       <c r="F128" s="45"/>
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
@@ -3679,7 +3683,7 @@
       <c r="K128" s="39"/>
     </row>
     <row r="129" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B129" s="95"/>
+      <c r="B129" s="93"/>
       <c r="C129" s="90"/>
       <c r="D129" s="44"/>
       <c r="E129" s="90"/>
@@ -3691,10 +3695,10 @@
       <c r="K129" s="39"/>
     </row>
     <row r="130" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B130" s="93"/>
-      <c r="C130" s="91"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="44"/>
-      <c r="E130" s="92"/>
+      <c r="E130" s="96"/>
       <c r="F130" s="45"/>
       <c r="G130" s="35"/>
       <c r="H130" s="35"/>
@@ -3703,7 +3707,7 @@
       <c r="K130" s="39"/>
     </row>
     <row r="131" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B131" s="95"/>
+      <c r="B131" s="93"/>
       <c r="C131" s="90"/>
       <c r="D131" s="44"/>
       <c r="E131" s="90"/>
@@ -3715,10 +3719,10 @@
       <c r="K131" s="39"/>
     </row>
     <row r="132" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B132" s="93"/>
-      <c r="C132" s="91"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="89"/>
       <c r="D132" s="44"/>
-      <c r="E132" s="92"/>
+      <c r="E132" s="96"/>
       <c r="F132" s="45"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
@@ -3727,7 +3731,7 @@
       <c r="K132" s="39"/>
     </row>
     <row r="133" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B133" s="95"/>
+      <c r="B133" s="93"/>
       <c r="C133" s="90"/>
       <c r="D133" s="44"/>
       <c r="E133" s="90"/>
@@ -3739,10 +3743,10 @@
       <c r="K133" s="39"/>
     </row>
     <row r="134" spans="2:11" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B134" s="93"/>
-      <c r="C134" s="91"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="89"/>
       <c r="D134" s="44"/>
-      <c r="E134" s="92"/>
+      <c r="E134" s="96"/>
       <c r="F134" s="45"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
@@ -3751,7 +3755,7 @@
       <c r="K134" s="39"/>
     </row>
     <row r="135" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B135" s="95"/>
+      <c r="B135" s="93"/>
       <c r="C135" s="90"/>
       <c r="D135" s="44"/>
       <c r="E135" s="90"/>
@@ -3763,10 +3767,10 @@
       <c r="K135" s="39"/>
     </row>
     <row r="136" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B136" s="93"/>
-      <c r="C136" s="91"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="89"/>
       <c r="D136" s="44"/>
-      <c r="E136" s="92"/>
+      <c r="E136" s="96"/>
       <c r="F136" s="45"/>
       <c r="G136" s="35"/>
       <c r="H136" s="35"/>
@@ -3775,7 +3779,7 @@
       <c r="K136" s="39"/>
     </row>
     <row r="137" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B137" s="95"/>
+      <c r="B137" s="93"/>
       <c r="C137" s="90"/>
       <c r="D137" s="44"/>
       <c r="E137" s="90"/>
@@ -3787,10 +3791,10 @@
       <c r="K137" s="39"/>
     </row>
     <row r="138" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B138" s="93"/>
-      <c r="C138" s="91"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="89"/>
       <c r="D138" s="44"/>
-      <c r="E138" s="92"/>
+      <c r="E138" s="96"/>
       <c r="F138" s="45"/>
       <c r="G138" s="35"/>
       <c r="H138" s="35"/>
@@ -3799,7 +3803,7 @@
       <c r="K138" s="39"/>
     </row>
     <row r="139" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B139" s="95"/>
+      <c r="B139" s="93"/>
       <c r="C139" s="90"/>
       <c r="D139" s="44"/>
       <c r="E139" s="90"/>
@@ -3811,10 +3815,10 @@
       <c r="K139" s="39"/>
     </row>
     <row r="140" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B140" s="93"/>
-      <c r="C140" s="91"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="89"/>
       <c r="D140" s="44"/>
-      <c r="E140" s="92"/>
+      <c r="E140" s="96"/>
       <c r="F140" s="45"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
@@ -3823,7 +3827,7 @@
       <c r="K140" s="39"/>
     </row>
     <row r="141" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B141" s="95"/>
+      <c r="B141" s="93"/>
       <c r="C141" s="90"/>
       <c r="D141" s="44"/>
       <c r="E141" s="90"/>
@@ -3835,10 +3839,10 @@
       <c r="K141" s="39"/>
     </row>
     <row r="142" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B142" s="93"/>
-      <c r="C142" s="91"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="89"/>
       <c r="D142" s="44"/>
-      <c r="E142" s="92"/>
+      <c r="E142" s="96"/>
       <c r="F142" s="45"/>
       <c r="G142" s="35"/>
       <c r="H142" s="35"/>
@@ -3847,7 +3851,7 @@
       <c r="K142" s="39"/>
     </row>
     <row r="143" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B143" s="95"/>
+      <c r="B143" s="93"/>
       <c r="C143" s="90"/>
       <c r="D143" s="44"/>
       <c r="E143" s="90"/>
@@ -3859,10 +3863,10 @@
       <c r="K143" s="39"/>
     </row>
     <row r="144" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B144" s="93"/>
-      <c r="C144" s="91"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="89"/>
       <c r="D144" s="44"/>
-      <c r="E144" s="92"/>
+      <c r="E144" s="96"/>
       <c r="F144" s="45"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
@@ -3871,7 +3875,7 @@
       <c r="K144" s="39"/>
     </row>
     <row r="145" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B145" s="95"/>
+      <c r="B145" s="93"/>
       <c r="C145" s="90"/>
       <c r="D145" s="44"/>
       <c r="E145" s="90"/>
@@ -3883,10 +3887,10 @@
       <c r="K145" s="39"/>
     </row>
     <row r="146" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B146" s="93"/>
-      <c r="C146" s="91"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="89"/>
       <c r="D146" s="44"/>
-      <c r="E146" s="92"/>
+      <c r="E146" s="96"/>
       <c r="F146" s="45"/>
       <c r="G146" s="35"/>
       <c r="H146" s="35"/>
@@ -3895,7 +3899,7 @@
       <c r="K146" s="39"/>
     </row>
     <row r="147" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B147" s="95"/>
+      <c r="B147" s="93"/>
       <c r="C147" s="90"/>
       <c r="D147" s="44"/>
       <c r="E147" s="90"/>
@@ -3907,10 +3911,10 @@
       <c r="K147" s="39"/>
     </row>
     <row r="148" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B148" s="93"/>
-      <c r="C148" s="91"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="89"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="92"/>
+      <c r="E148" s="96"/>
       <c r="F148" s="45"/>
       <c r="G148" s="35"/>
       <c r="H148" s="35"/>
@@ -3919,7 +3923,7 @@
       <c r="K148" s="39"/>
     </row>
     <row r="149" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B149" s="95"/>
+      <c r="B149" s="93"/>
       <c r="C149" s="90"/>
       <c r="D149" s="44"/>
       <c r="E149" s="90"/>
@@ -3931,10 +3935,10 @@
       <c r="K149" s="39"/>
     </row>
     <row r="150" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B150" s="93"/>
-      <c r="C150" s="91"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="89"/>
       <c r="D150" s="44"/>
-      <c r="E150" s="92"/>
+      <c r="E150" s="96"/>
       <c r="F150" s="45"/>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
@@ -3943,7 +3947,7 @@
       <c r="K150" s="39"/>
     </row>
     <row r="151" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B151" s="95"/>
+      <c r="B151" s="93"/>
       <c r="C151" s="90"/>
       <c r="D151" s="44"/>
       <c r="E151" s="90"/>
@@ -3955,10 +3959,10 @@
       <c r="K151" s="39"/>
     </row>
     <row r="152" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B152" s="93"/>
-      <c r="C152" s="91"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="89"/>
       <c r="D152" s="44"/>
-      <c r="E152" s="92"/>
+      <c r="E152" s="96"/>
       <c r="F152" s="45"/>
       <c r="G152" s="35"/>
       <c r="H152" s="35"/>
@@ -3967,7 +3971,7 @@
       <c r="K152" s="39"/>
     </row>
     <row r="153" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B153" s="95"/>
+      <c r="B153" s="93"/>
       <c r="C153" s="90"/>
       <c r="D153" s="44"/>
       <c r="E153" s="90"/>
@@ -3979,10 +3983,10 @@
       <c r="K153" s="39"/>
     </row>
     <row r="154" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B154" s="93"/>
-      <c r="C154" s="91"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="89"/>
       <c r="D154" s="44"/>
-      <c r="E154" s="92"/>
+      <c r="E154" s="96"/>
       <c r="F154" s="45"/>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
@@ -3991,7 +3995,7 @@
       <c r="K154" s="39"/>
     </row>
     <row r="155" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B155" s="95"/>
+      <c r="B155" s="93"/>
       <c r="C155" s="90"/>
       <c r="D155" s="44"/>
       <c r="E155" s="90"/>
@@ -4003,10 +4007,10 @@
       <c r="K155" s="39"/>
     </row>
     <row r="156" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B156" s="93"/>
-      <c r="C156" s="91"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="89"/>
       <c r="D156" s="44"/>
-      <c r="E156" s="92"/>
+      <c r="E156" s="96"/>
       <c r="F156" s="45"/>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
@@ -4015,7 +4019,7 @@
       <c r="K156" s="39"/>
     </row>
     <row r="157" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B157" s="95"/>
+      <c r="B157" s="93"/>
       <c r="C157" s="90"/>
       <c r="D157" s="44"/>
       <c r="E157" s="90"/>
@@ -4027,8 +4031,8 @@
       <c r="K157" s="39"/>
     </row>
     <row r="158" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B158" s="93"/>
-      <c r="C158" s="91"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="89"/>
       <c r="D158" s="44"/>
       <c r="E158" s="41"/>
       <c r="F158" s="45"/>
@@ -4039,7 +4043,7 @@
       <c r="K158" s="39"/>
     </row>
     <row r="159" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B159" s="95"/>
+      <c r="B159" s="93"/>
       <c r="C159" s="90"/>
       <c r="D159" s="44"/>
       <c r="E159" s="41"/>
@@ -4051,8 +4055,8 @@
       <c r="K159" s="39"/>
     </row>
     <row r="160" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B160" s="93"/>
-      <c r="C160" s="91"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="89"/>
       <c r="D160" s="44"/>
       <c r="E160" s="41"/>
       <c r="F160" s="45"/>
@@ -4063,7 +4067,7 @@
       <c r="K160" s="39"/>
     </row>
     <row r="161" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B161" s="95"/>
+      <c r="B161" s="93"/>
       <c r="C161" s="90"/>
       <c r="D161" s="44"/>
       <c r="E161" s="41"/>
@@ -4075,8 +4079,8 @@
       <c r="K161" s="39"/>
     </row>
     <row r="162" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B162" s="93"/>
-      <c r="C162" s="91"/>
+      <c r="B162" s="92"/>
+      <c r="C162" s="89"/>
       <c r="D162" s="44"/>
       <c r="E162" s="41"/>
       <c r="F162" s="45"/>
@@ -4087,7 +4091,7 @@
       <c r="K162" s="39"/>
     </row>
     <row r="163" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B163" s="95"/>
+      <c r="B163" s="93"/>
       <c r="C163" s="90"/>
       <c r="D163" s="44"/>
       <c r="E163" s="41"/>
@@ -4099,8 +4103,8 @@
       <c r="K163" s="39"/>
     </row>
     <row r="164" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B164" s="93"/>
-      <c r="C164" s="91"/>
+      <c r="B164" s="92"/>
+      <c r="C164" s="89"/>
       <c r="D164" s="44"/>
       <c r="E164" s="41"/>
       <c r="F164" s="45"/>
@@ -4111,7 +4115,7 @@
       <c r="K164" s="39"/>
     </row>
     <row r="165" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B165" s="95"/>
+      <c r="B165" s="93"/>
       <c r="C165" s="90"/>
       <c r="D165" s="44"/>
       <c r="E165" s="41"/>
@@ -4123,8 +4127,8 @@
       <c r="K165" s="39"/>
     </row>
     <row r="166" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B166" s="93"/>
-      <c r="C166" s="91"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="89"/>
       <c r="D166" s="44"/>
       <c r="E166" s="41"/>
       <c r="F166" s="45"/>
@@ -4135,7 +4139,7 @@
       <c r="K166" s="39"/>
     </row>
     <row r="167" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B167" s="95"/>
+      <c r="B167" s="93"/>
       <c r="C167" s="90"/>
       <c r="D167" s="44"/>
       <c r="E167" s="41"/>
@@ -4147,8 +4151,8 @@
       <c r="K167" s="39"/>
     </row>
     <row r="168" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B168" s="93"/>
-      <c r="C168" s="91"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="89"/>
       <c r="D168" s="44"/>
       <c r="E168" s="41"/>
       <c r="F168" s="45"/>
@@ -4159,7 +4163,7 @@
       <c r="K168" s="39"/>
     </row>
     <row r="169" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B169" s="95"/>
+      <c r="B169" s="93"/>
       <c r="C169" s="90"/>
       <c r="D169" s="44"/>
       <c r="E169" s="41"/>
@@ -4171,8 +4175,8 @@
       <c r="K169" s="39"/>
     </row>
     <row r="170" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B170" s="93"/>
-      <c r="C170" s="91"/>
+      <c r="B170" s="92"/>
+      <c r="C170" s="89"/>
       <c r="D170" s="44"/>
       <c r="E170" s="41"/>
       <c r="F170" s="45"/>
@@ -4183,7 +4187,7 @@
       <c r="K170" s="39"/>
     </row>
     <row r="171" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B171" s="95"/>
+      <c r="B171" s="93"/>
       <c r="C171" s="90"/>
       <c r="D171" s="44"/>
       <c r="E171" s="41"/>
@@ -4195,8 +4199,8 @@
       <c r="K171" s="39"/>
     </row>
     <row r="172" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B172" s="93"/>
-      <c r="C172" s="91"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="89"/>
       <c r="D172" s="44"/>
       <c r="E172" s="41"/>
       <c r="F172" s="45"/>
@@ -4207,7 +4211,7 @@
       <c r="K172" s="39"/>
     </row>
     <row r="173" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B173" s="95"/>
+      <c r="B173" s="93"/>
       <c r="C173" s="90"/>
       <c r="D173" s="44"/>
       <c r="E173" s="41"/>
@@ -4219,8 +4223,8 @@
       <c r="K173" s="39"/>
     </row>
     <row r="174" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B174" s="93"/>
-      <c r="C174" s="91"/>
+      <c r="B174" s="92"/>
+      <c r="C174" s="89"/>
       <c r="D174" s="44"/>
       <c r="E174" s="41"/>
       <c r="F174" s="45"/>
@@ -4231,7 +4235,7 @@
       <c r="K174" s="39"/>
     </row>
     <row r="175" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B175" s="95"/>
+      <c r="B175" s="93"/>
       <c r="C175" s="90"/>
       <c r="D175" s="44"/>
       <c r="E175" s="41"/>
@@ -4243,8 +4247,8 @@
       <c r="K175" s="39"/>
     </row>
     <row r="176" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B176" s="93"/>
-      <c r="C176" s="91"/>
+      <c r="B176" s="92"/>
+      <c r="C176" s="89"/>
       <c r="D176" s="44"/>
       <c r="E176" s="41"/>
       <c r="F176" s="45"/>
@@ -4255,7 +4259,7 @@
       <c r="K176" s="39"/>
     </row>
     <row r="177" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B177" s="95"/>
+      <c r="B177" s="93"/>
       <c r="C177" s="90"/>
       <c r="D177" s="44"/>
       <c r="E177" s="41"/>
@@ -4267,8 +4271,8 @@
       <c r="K177" s="39"/>
     </row>
     <row r="178" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B178" s="93"/>
-      <c r="C178" s="91"/>
+      <c r="B178" s="92"/>
+      <c r="C178" s="89"/>
       <c r="D178" s="44"/>
       <c r="E178" s="41"/>
       <c r="F178" s="45"/>
@@ -4279,7 +4283,7 @@
       <c r="K178" s="39"/>
     </row>
     <row r="179" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B179" s="95"/>
+      <c r="B179" s="93"/>
       <c r="C179" s="90"/>
       <c r="D179" s="44"/>
       <c r="E179" s="41"/>
@@ -4291,8 +4295,8 @@
       <c r="K179" s="39"/>
     </row>
     <row r="180" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B180" s="93"/>
-      <c r="C180" s="91"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="89"/>
       <c r="D180" s="44"/>
       <c r="E180" s="41"/>
       <c r="F180" s="45"/>
@@ -4303,7 +4307,7 @@
       <c r="K180" s="39"/>
     </row>
     <row r="181" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B181" s="95"/>
+      <c r="B181" s="93"/>
       <c r="C181" s="90"/>
       <c r="D181" s="44"/>
       <c r="E181" s="41"/>
@@ -4315,8 +4319,8 @@
       <c r="K181" s="39"/>
     </row>
     <row r="182" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B182" s="93"/>
-      <c r="C182" s="91"/>
+      <c r="B182" s="92"/>
+      <c r="C182" s="89"/>
       <c r="D182" s="44"/>
       <c r="E182" s="41"/>
       <c r="F182" s="45"/>
@@ -4327,7 +4331,7 @@
       <c r="K182" s="39"/>
     </row>
     <row r="183" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B183" s="95"/>
+      <c r="B183" s="93"/>
       <c r="C183" s="90"/>
       <c r="D183" s="44"/>
       <c r="E183" s="41"/>
@@ -4339,8 +4343,8 @@
       <c r="K183" s="39"/>
     </row>
     <row r="184" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B184" s="93"/>
-      <c r="C184" s="91"/>
+      <c r="B184" s="92"/>
+      <c r="C184" s="89"/>
       <c r="D184" s="44"/>
       <c r="E184" s="41"/>
       <c r="F184" s="45"/>
@@ -4351,7 +4355,7 @@
       <c r="K184" s="39"/>
     </row>
     <row r="185" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B185" s="95"/>
+      <c r="B185" s="93"/>
       <c r="C185" s="90"/>
       <c r="D185" s="44"/>
       <c r="E185" s="41"/>
@@ -4363,8 +4367,8 @@
       <c r="K185" s="39"/>
     </row>
     <row r="186" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B186" s="93"/>
-      <c r="C186" s="91"/>
+      <c r="B186" s="92"/>
+      <c r="C186" s="89"/>
       <c r="D186" s="44"/>
       <c r="E186" s="41"/>
       <c r="F186" s="45"/>
@@ -4375,7 +4379,7 @@
       <c r="K186" s="39"/>
     </row>
     <row r="187" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B187" s="95"/>
+      <c r="B187" s="93"/>
       <c r="C187" s="90"/>
       <c r="D187" s="44"/>
       <c r="E187" s="41"/>
@@ -4387,8 +4391,8 @@
       <c r="K187" s="39"/>
     </row>
     <row r="188" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B188" s="93"/>
-      <c r="C188" s="91"/>
+      <c r="B188" s="92"/>
+      <c r="C188" s="89"/>
       <c r="D188" s="44"/>
       <c r="E188" s="41"/>
       <c r="F188" s="45"/>
@@ -4399,7 +4403,7 @@
       <c r="K188" s="39"/>
     </row>
     <row r="189" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B189" s="95"/>
+      <c r="B189" s="93"/>
       <c r="C189" s="90"/>
       <c r="D189" s="44"/>
       <c r="E189" s="41"/>
@@ -4411,8 +4415,8 @@
       <c r="K189" s="39"/>
     </row>
     <row r="190" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B190" s="93"/>
-      <c r="C190" s="91"/>
+      <c r="B190" s="92"/>
+      <c r="C190" s="89"/>
       <c r="D190" s="44"/>
       <c r="E190" s="41"/>
       <c r="F190" s="45"/>
@@ -4423,7 +4427,7 @@
       <c r="K190" s="39"/>
     </row>
     <row r="191" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B191" s="95"/>
+      <c r="B191" s="93"/>
       <c r="C191" s="90"/>
       <c r="D191" s="44"/>
       <c r="E191" s="41"/>
@@ -4435,8 +4439,8 @@
       <c r="K191" s="39"/>
     </row>
     <row r="192" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B192" s="93"/>
-      <c r="C192" s="91"/>
+      <c r="B192" s="92"/>
+      <c r="C192" s="89"/>
       <c r="D192" s="44"/>
       <c r="E192" s="41"/>
       <c r="F192" s="45"/>
@@ -4447,7 +4451,7 @@
       <c r="K192" s="39"/>
     </row>
     <row r="193" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B193" s="95"/>
+      <c r="B193" s="93"/>
       <c r="C193" s="90"/>
       <c r="D193" s="44"/>
       <c r="E193" s="41"/>
@@ -4459,8 +4463,8 @@
       <c r="K193" s="39"/>
     </row>
     <row r="194" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B194" s="93"/>
-      <c r="C194" s="91"/>
+      <c r="B194" s="92"/>
+      <c r="C194" s="89"/>
       <c r="D194" s="44"/>
       <c r="E194" s="41"/>
       <c r="F194" s="45"/>
@@ -4471,7 +4475,7 @@
       <c r="K194" s="39"/>
     </row>
     <row r="195" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B195" s="95"/>
+      <c r="B195" s="93"/>
       <c r="C195" s="90"/>
       <c r="D195" s="44"/>
       <c r="E195" s="41"/>
@@ -4483,8 +4487,8 @@
       <c r="K195" s="39"/>
     </row>
     <row r="196" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B196" s="93"/>
-      <c r="C196" s="91"/>
+      <c r="B196" s="92"/>
+      <c r="C196" s="89"/>
       <c r="D196" s="44"/>
       <c r="E196" s="41"/>
       <c r="F196" s="45"/>
@@ -4495,7 +4499,7 @@
       <c r="K196" s="39"/>
     </row>
     <row r="197" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B197" s="95"/>
+      <c r="B197" s="93"/>
       <c r="C197" s="90"/>
       <c r="D197" s="44"/>
       <c r="E197" s="41"/>
@@ -4507,8 +4511,8 @@
       <c r="K197" s="39"/>
     </row>
     <row r="198" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B198" s="93"/>
-      <c r="C198" s="91"/>
+      <c r="B198" s="92"/>
+      <c r="C198" s="89"/>
       <c r="D198" s="44"/>
       <c r="E198" s="41"/>
       <c r="F198" s="45"/>
@@ -4519,7 +4523,7 @@
       <c r="K198" s="39"/>
     </row>
     <row r="199" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B199" s="95"/>
+      <c r="B199" s="93"/>
       <c r="C199" s="90"/>
       <c r="D199" s="44"/>
       <c r="E199" s="41"/>
@@ -4531,8 +4535,8 @@
       <c r="K199" s="39"/>
     </row>
     <row r="200" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B200" s="93"/>
-      <c r="C200" s="91"/>
+      <c r="B200" s="92"/>
+      <c r="C200" s="89"/>
       <c r="D200" s="44"/>
       <c r="E200" s="41"/>
       <c r="F200" s="45"/>
@@ -4543,7 +4547,7 @@
       <c r="K200" s="39"/>
     </row>
     <row r="201" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B201" s="95"/>
+      <c r="B201" s="93"/>
       <c r="C201" s="90"/>
       <c r="D201" s="44"/>
       <c r="E201" s="41"/>
@@ -4555,8 +4559,8 @@
       <c r="K201" s="39"/>
     </row>
     <row r="202" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B202" s="93"/>
-      <c r="C202" s="91"/>
+      <c r="B202" s="92"/>
+      <c r="C202" s="89"/>
       <c r="D202" s="44"/>
       <c r="E202" s="41"/>
       <c r="F202" s="45"/>
@@ -4567,7 +4571,7 @@
       <c r="K202" s="39"/>
     </row>
     <row r="203" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B203" s="95"/>
+      <c r="B203" s="93"/>
       <c r="C203" s="90"/>
       <c r="D203" s="44"/>
       <c r="E203" s="41"/>
@@ -4579,8 +4583,8 @@
       <c r="K203" s="39"/>
     </row>
     <row r="204" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B204" s="93"/>
-      <c r="C204" s="91"/>
+      <c r="B204" s="92"/>
+      <c r="C204" s="89"/>
       <c r="D204" s="44"/>
       <c r="E204" s="41"/>
       <c r="F204" s="45"/>
@@ -4591,7 +4595,7 @@
       <c r="K204" s="39"/>
     </row>
     <row r="205" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B205" s="95"/>
+      <c r="B205" s="93"/>
       <c r="C205" s="90"/>
       <c r="D205" s="44"/>
       <c r="E205" s="41"/>
@@ -4603,8 +4607,8 @@
       <c r="K205" s="39"/>
     </row>
     <row r="206" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B206" s="93"/>
-      <c r="C206" s="91"/>
+      <c r="B206" s="92"/>
+      <c r="C206" s="89"/>
       <c r="D206" s="44"/>
       <c r="E206" s="41"/>
       <c r="F206" s="45"/>
@@ -4615,7 +4619,7 @@
       <c r="K206" s="39"/>
     </row>
     <row r="207" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B207" s="95"/>
+      <c r="B207" s="93"/>
       <c r="C207" s="90"/>
       <c r="D207" s="44"/>
       <c r="E207" s="41"/>
@@ -4627,8 +4631,8 @@
       <c r="K207" s="39"/>
     </row>
     <row r="208" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B208" s="93"/>
-      <c r="C208" s="91"/>
+      <c r="B208" s="92"/>
+      <c r="C208" s="89"/>
       <c r="D208" s="44"/>
       <c r="E208" s="41"/>
       <c r="F208" s="45"/>
@@ -4639,7 +4643,7 @@
       <c r="K208" s="39"/>
     </row>
     <row r="209" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B209" s="95"/>
+      <c r="B209" s="93"/>
       <c r="C209" s="90"/>
       <c r="D209" s="44"/>
       <c r="E209" s="41"/>
@@ -4651,8 +4655,8 @@
       <c r="K209" s="39"/>
     </row>
     <row r="210" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B210" s="93"/>
-      <c r="C210" s="91"/>
+      <c r="B210" s="92"/>
+      <c r="C210" s="89"/>
       <c r="D210" s="44"/>
       <c r="E210" s="41"/>
       <c r="F210" s="45"/>
@@ -4663,7 +4667,7 @@
       <c r="K210" s="39"/>
     </row>
     <row r="211" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B211" s="95"/>
+      <c r="B211" s="93"/>
       <c r="C211" s="90"/>
       <c r="D211" s="44"/>
       <c r="E211" s="41"/>
@@ -4675,8 +4679,8 @@
       <c r="K211" s="39"/>
     </row>
     <row r="212" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B212" s="93"/>
-      <c r="C212" s="91"/>
+      <c r="B212" s="92"/>
+      <c r="C212" s="89"/>
       <c r="D212" s="44"/>
       <c r="E212" s="41"/>
       <c r="F212" s="45"/>
@@ -4687,7 +4691,7 @@
       <c r="K212" s="39"/>
     </row>
     <row r="213" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B213" s="95"/>
+      <c r="B213" s="93"/>
       <c r="C213" s="90"/>
       <c r="D213" s="44"/>
       <c r="E213" s="41"/>
@@ -4699,8 +4703,8 @@
       <c r="K213" s="39"/>
     </row>
     <row r="214" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B214" s="93"/>
-      <c r="C214" s="91"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="89"/>
       <c r="D214" s="44"/>
       <c r="E214" s="41"/>
       <c r="F214" s="45"/>
@@ -4711,7 +4715,7 @@
       <c r="K214" s="39"/>
     </row>
     <row r="215" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B215" s="95"/>
+      <c r="B215" s="93"/>
       <c r="C215" s="90"/>
       <c r="D215" s="44"/>
       <c r="E215" s="41"/>
@@ -4723,8 +4727,8 @@
       <c r="K215" s="39"/>
     </row>
     <row r="216" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B216" s="93"/>
-      <c r="C216" s="91"/>
+      <c r="B216" s="92"/>
+      <c r="C216" s="89"/>
       <c r="D216" s="44"/>
       <c r="E216" s="41"/>
       <c r="F216" s="45"/>
@@ -4735,7 +4739,7 @@
       <c r="K216" s="39"/>
     </row>
     <row r="217" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B217" s="95"/>
+      <c r="B217" s="93"/>
       <c r="C217" s="90"/>
       <c r="D217" s="44"/>
       <c r="E217" s="41"/>
@@ -4747,8 +4751,8 @@
       <c r="K217" s="39"/>
     </row>
     <row r="218" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B218" s="93"/>
-      <c r="C218" s="91"/>
+      <c r="B218" s="92"/>
+      <c r="C218" s="89"/>
       <c r="D218" s="44"/>
       <c r="E218" s="41"/>
       <c r="F218" s="45"/>
@@ -4759,7 +4763,7 @@
       <c r="K218" s="39"/>
     </row>
     <row r="219" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B219" s="95"/>
+      <c r="B219" s="93"/>
       <c r="C219" s="90"/>
       <c r="D219" s="44"/>
       <c r="E219" s="41"/>
@@ -4771,8 +4775,8 @@
       <c r="K219" s="39"/>
     </row>
     <row r="220" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B220" s="93"/>
-      <c r="C220" s="91"/>
+      <c r="B220" s="92"/>
+      <c r="C220" s="89"/>
       <c r="D220" s="44"/>
       <c r="E220" s="41"/>
       <c r="F220" s="45"/>
@@ -4783,7 +4787,7 @@
       <c r="K220" s="39"/>
     </row>
     <row r="221" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B221" s="95"/>
+      <c r="B221" s="93"/>
       <c r="C221" s="90"/>
       <c r="D221" s="44"/>
       <c r="E221" s="41"/>
@@ -4795,8 +4799,8 @@
       <c r="K221" s="39"/>
     </row>
     <row r="222" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B222" s="93"/>
-      <c r="C222" s="91"/>
+      <c r="B222" s="92"/>
+      <c r="C222" s="89"/>
       <c r="D222" s="44"/>
       <c r="E222" s="41"/>
       <c r="F222" s="45"/>
@@ -4807,7 +4811,7 @@
       <c r="K222" s="39"/>
     </row>
     <row r="223" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B223" s="95"/>
+      <c r="B223" s="93"/>
       <c r="C223" s="90"/>
       <c r="D223" s="44"/>
       <c r="E223" s="41"/>
@@ -4819,8 +4823,8 @@
       <c r="K223" s="39"/>
     </row>
     <row r="224" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B224" s="93"/>
-      <c r="C224" s="91"/>
+      <c r="B224" s="92"/>
+      <c r="C224" s="89"/>
       <c r="D224" s="44"/>
       <c r="E224" s="41"/>
       <c r="F224" s="45"/>
@@ -4831,7 +4835,7 @@
       <c r="K224" s="39"/>
     </row>
     <row r="225" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B225" s="95"/>
+      <c r="B225" s="93"/>
       <c r="C225" s="90"/>
       <c r="D225" s="44"/>
       <c r="E225" s="41"/>
@@ -4843,8 +4847,8 @@
       <c r="K225" s="39"/>
     </row>
     <row r="226" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B226" s="93"/>
-      <c r="C226" s="91"/>
+      <c r="B226" s="92"/>
+      <c r="C226" s="89"/>
       <c r="D226" s="44"/>
       <c r="E226" s="41"/>
       <c r="F226" s="45"/>
@@ -4855,7 +4859,7 @@
       <c r="K226" s="39"/>
     </row>
     <row r="227" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B227" s="95"/>
+      <c r="B227" s="93"/>
       <c r="C227" s="90"/>
       <c r="D227" s="44"/>
       <c r="E227" s="41"/>
@@ -4867,8 +4871,8 @@
       <c r="K227" s="39"/>
     </row>
     <row r="228" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B228" s="93"/>
-      <c r="C228" s="91"/>
+      <c r="B228" s="92"/>
+      <c r="C228" s="89"/>
       <c r="D228" s="44"/>
       <c r="E228" s="41"/>
       <c r="F228" s="45"/>
@@ -4879,7 +4883,7 @@
       <c r="K228" s="39"/>
     </row>
     <row r="229" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B229" s="95"/>
+      <c r="B229" s="93"/>
       <c r="C229" s="90"/>
       <c r="D229" s="44"/>
       <c r="E229" s="41"/>
@@ -4891,8 +4895,8 @@
       <c r="K229" s="39"/>
     </row>
     <row r="230" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B230" s="93"/>
-      <c r="C230" s="91"/>
+      <c r="B230" s="92"/>
+      <c r="C230" s="89"/>
       <c r="D230" s="44"/>
       <c r="E230" s="41"/>
       <c r="F230" s="45"/>
@@ -4903,7 +4907,7 @@
       <c r="K230" s="39"/>
     </row>
     <row r="231" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B231" s="95"/>
+      <c r="B231" s="93"/>
       <c r="C231" s="90"/>
       <c r="D231" s="44"/>
       <c r="E231" s="41"/>
@@ -4915,8 +4919,8 @@
       <c r="K231" s="39"/>
     </row>
     <row r="232" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B232" s="93"/>
-      <c r="C232" s="91"/>
+      <c r="B232" s="92"/>
+      <c r="C232" s="89"/>
       <c r="D232" s="44"/>
       <c r="E232" s="41"/>
       <c r="F232" s="45"/>
@@ -4927,7 +4931,7 @@
       <c r="K232" s="39"/>
     </row>
     <row r="233" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B233" s="95"/>
+      <c r="B233" s="93"/>
       <c r="C233" s="90"/>
       <c r="D233" s="44"/>
       <c r="E233" s="41"/>
@@ -4939,8 +4943,8 @@
       <c r="K233" s="39"/>
     </row>
     <row r="234" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B234" s="93"/>
-      <c r="C234" s="91"/>
+      <c r="B234" s="92"/>
+      <c r="C234" s="89"/>
       <c r="D234" s="44"/>
       <c r="E234" s="41"/>
       <c r="F234" s="45"/>
@@ -4951,7 +4955,7 @@
       <c r="K234" s="39"/>
     </row>
     <row r="235" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B235" s="95"/>
+      <c r="B235" s="93"/>
       <c r="C235" s="90"/>
       <c r="D235" s="44"/>
       <c r="E235" s="41"/>
@@ -4963,8 +4967,8 @@
       <c r="K235" s="39"/>
     </row>
     <row r="236" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B236" s="93"/>
-      <c r="C236" s="91"/>
+      <c r="B236" s="92"/>
+      <c r="C236" s="89"/>
       <c r="D236" s="44"/>
       <c r="E236" s="41"/>
       <c r="F236" s="45"/>
@@ -4975,7 +4979,7 @@
       <c r="K236" s="39"/>
     </row>
     <row r="237" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B237" s="95"/>
+      <c r="B237" s="93"/>
       <c r="C237" s="90"/>
       <c r="D237" s="44"/>
       <c r="E237" s="41"/>
@@ -4987,8 +4991,8 @@
       <c r="K237" s="39"/>
     </row>
     <row r="238" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B238" s="93"/>
-      <c r="C238" s="91"/>
+      <c r="B238" s="92"/>
+      <c r="C238" s="89"/>
       <c r="D238" s="44"/>
       <c r="E238" s="41"/>
       <c r="F238" s="45"/>
@@ -4999,7 +5003,7 @@
       <c r="K238" s="39"/>
     </row>
     <row r="239" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B239" s="95"/>
+      <c r="B239" s="93"/>
       <c r="C239" s="90"/>
       <c r="D239" s="44"/>
       <c r="E239" s="41"/>
@@ -5011,8 +5015,8 @@
       <c r="K239" s="39"/>
     </row>
     <row r="240" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B240" s="93"/>
-      <c r="C240" s="91"/>
+      <c r="B240" s="92"/>
+      <c r="C240" s="89"/>
       <c r="D240" s="44"/>
       <c r="E240" s="41"/>
       <c r="F240" s="45"/>
@@ -5023,7 +5027,7 @@
       <c r="K240" s="39"/>
     </row>
     <row r="241" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B241" s="95"/>
+      <c r="B241" s="93"/>
       <c r="C241" s="90"/>
       <c r="D241" s="44"/>
       <c r="E241" s="41"/>
@@ -5035,8 +5039,8 @@
       <c r="K241" s="39"/>
     </row>
     <row r="242" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B242" s="93"/>
-      <c r="C242" s="91"/>
+      <c r="B242" s="92"/>
+      <c r="C242" s="89"/>
       <c r="D242" s="44"/>
       <c r="E242" s="41"/>
       <c r="F242" s="45"/>
@@ -5047,7 +5051,7 @@
       <c r="K242" s="39"/>
     </row>
     <row r="243" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B243" s="95"/>
+      <c r="B243" s="93"/>
       <c r="C243" s="90"/>
       <c r="D243" s="44"/>
       <c r="E243" s="41"/>
@@ -5059,8 +5063,8 @@
       <c r="K243" s="39"/>
     </row>
     <row r="244" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B244" s="93"/>
-      <c r="C244" s="91"/>
+      <c r="B244" s="92"/>
+      <c r="C244" s="89"/>
       <c r="D244" s="44"/>
       <c r="E244" s="41"/>
       <c r="F244" s="45"/>
@@ -5071,7 +5075,7 @@
       <c r="K244" s="39"/>
     </row>
     <row r="245" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B245" s="95"/>
+      <c r="B245" s="93"/>
       <c r="C245" s="90"/>
       <c r="D245" s="44"/>
       <c r="E245" s="41"/>
@@ -5083,8 +5087,8 @@
       <c r="K245" s="39"/>
     </row>
     <row r="246" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B246" s="93"/>
-      <c r="C246" s="91"/>
+      <c r="B246" s="92"/>
+      <c r="C246" s="89"/>
       <c r="D246" s="44"/>
       <c r="E246" s="41"/>
       <c r="F246" s="45"/>
@@ -5095,7 +5099,7 @@
       <c r="K246" s="39"/>
     </row>
     <row r="247" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B247" s="95"/>
+      <c r="B247" s="93"/>
       <c r="C247" s="90"/>
       <c r="D247" s="44"/>
       <c r="E247" s="41"/>
@@ -5107,8 +5111,8 @@
       <c r="K247" s="39"/>
     </row>
     <row r="248" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B248" s="93"/>
-      <c r="C248" s="91"/>
+      <c r="B248" s="92"/>
+      <c r="C248" s="89"/>
       <c r="D248" s="44"/>
       <c r="E248" s="41"/>
       <c r="F248" s="45"/>
@@ -5119,7 +5123,7 @@
       <c r="K248" s="39"/>
     </row>
     <row r="249" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B249" s="95"/>
+      <c r="B249" s="93"/>
       <c r="C249" s="90"/>
       <c r="D249" s="44"/>
       <c r="E249" s="41"/>
@@ -5131,8 +5135,8 @@
       <c r="K249" s="39"/>
     </row>
     <row r="250" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B250" s="93"/>
-      <c r="C250" s="91"/>
+      <c r="B250" s="92"/>
+      <c r="C250" s="89"/>
       <c r="D250" s="44"/>
       <c r="E250" s="41"/>
       <c r="F250" s="45"/>
@@ -5143,7 +5147,7 @@
       <c r="K250" s="39"/>
     </row>
     <row r="251" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B251" s="95"/>
+      <c r="B251" s="93"/>
       <c r="C251" s="90"/>
       <c r="D251" s="44"/>
       <c r="E251" s="41"/>
@@ -5155,8 +5159,8 @@
       <c r="K251" s="39"/>
     </row>
     <row r="252" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B252" s="93"/>
-      <c r="C252" s="91"/>
+      <c r="B252" s="92"/>
+      <c r="C252" s="89"/>
       <c r="D252" s="44"/>
       <c r="E252" s="41"/>
       <c r="F252" s="45"/>
@@ -5167,7 +5171,7 @@
       <c r="K252" s="39"/>
     </row>
     <row r="253" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B253" s="95"/>
+      <c r="B253" s="93"/>
       <c r="C253" s="90"/>
       <c r="D253" s="44"/>
       <c r="E253" s="41"/>
@@ -5179,8 +5183,8 @@
       <c r="K253" s="39"/>
     </row>
     <row r="254" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B254" s="93"/>
-      <c r="C254" s="91"/>
+      <c r="B254" s="92"/>
+      <c r="C254" s="89"/>
       <c r="D254" s="44"/>
       <c r="E254" s="41"/>
       <c r="F254" s="45"/>
@@ -5191,7 +5195,7 @@
       <c r="K254" s="39"/>
     </row>
     <row r="255" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B255" s="95"/>
+      <c r="B255" s="93"/>
       <c r="C255" s="90"/>
       <c r="D255" s="44"/>
       <c r="E255" s="41"/>
@@ -5203,8 +5207,8 @@
       <c r="K255" s="39"/>
     </row>
     <row r="256" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B256" s="93"/>
-      <c r="C256" s="91"/>
+      <c r="B256" s="92"/>
+      <c r="C256" s="89"/>
       <c r="D256" s="44"/>
       <c r="E256" s="41"/>
       <c r="F256" s="45"/>
@@ -5215,7 +5219,7 @@
       <c r="K256" s="39"/>
     </row>
     <row r="257" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B257" s="95"/>
+      <c r="B257" s="93"/>
       <c r="C257" s="90"/>
       <c r="D257" s="44"/>
       <c r="E257" s="41"/>
@@ -5227,8 +5231,8 @@
       <c r="K257" s="39"/>
     </row>
     <row r="258" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B258" s="93"/>
-      <c r="C258" s="91"/>
+      <c r="B258" s="92"/>
+      <c r="C258" s="89"/>
       <c r="D258" s="44"/>
       <c r="E258" s="41"/>
       <c r="F258" s="45"/>
@@ -5239,7 +5243,7 @@
       <c r="K258" s="39"/>
     </row>
     <row r="259" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B259" s="95"/>
+      <c r="B259" s="93"/>
       <c r="C259" s="90"/>
       <c r="D259" s="44"/>
       <c r="E259" s="41"/>
@@ -5251,8 +5255,8 @@
       <c r="K259" s="39"/>
     </row>
     <row r="260" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B260" s="93"/>
-      <c r="C260" s="91"/>
+      <c r="B260" s="92"/>
+      <c r="C260" s="89"/>
       <c r="D260" s="44"/>
       <c r="E260" s="41"/>
       <c r="F260" s="45"/>
@@ -5263,7 +5267,7 @@
       <c r="K260" s="39"/>
     </row>
     <row r="261" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B261" s="95"/>
+      <c r="B261" s="93"/>
       <c r="C261" s="90"/>
       <c r="D261" s="44"/>
       <c r="E261" s="41"/>
@@ -5275,8 +5279,8 @@
       <c r="K261" s="39"/>
     </row>
     <row r="262" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B262" s="93"/>
-      <c r="C262" s="91"/>
+      <c r="B262" s="92"/>
+      <c r="C262" s="89"/>
       <c r="D262" s="44"/>
       <c r="E262" s="41"/>
       <c r="F262" s="45"/>
@@ -5287,7 +5291,7 @@
       <c r="K262" s="39"/>
     </row>
     <row r="263" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B263" s="95"/>
+      <c r="B263" s="93"/>
       <c r="C263" s="90"/>
       <c r="D263" s="44"/>
       <c r="E263" s="41"/>
@@ -5299,8 +5303,8 @@
       <c r="K263" s="39"/>
     </row>
     <row r="264" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B264" s="93"/>
-      <c r="C264" s="91"/>
+      <c r="B264" s="92"/>
+      <c r="C264" s="89"/>
       <c r="D264" s="44"/>
       <c r="E264" s="41"/>
       <c r="F264" s="45"/>
@@ -5311,7 +5315,7 @@
       <c r="K264" s="39"/>
     </row>
     <row r="265" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B265" s="95"/>
+      <c r="B265" s="93"/>
       <c r="C265" s="90"/>
       <c r="D265" s="44"/>
       <c r="E265" s="41"/>
@@ -5323,8 +5327,8 @@
       <c r="K265" s="39"/>
     </row>
     <row r="266" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B266" s="93"/>
-      <c r="C266" s="91"/>
+      <c r="B266" s="92"/>
+      <c r="C266" s="89"/>
       <c r="D266" s="44"/>
       <c r="E266" s="41"/>
       <c r="F266" s="45"/>
@@ -5335,7 +5339,7 @@
       <c r="K266" s="39"/>
     </row>
     <row r="267" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B267" s="95"/>
+      <c r="B267" s="93"/>
       <c r="C267" s="90"/>
       <c r="D267" s="44"/>
       <c r="E267" s="41"/>
@@ -5347,8 +5351,8 @@
       <c r="K267" s="39"/>
     </row>
     <row r="268" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B268" s="93"/>
-      <c r="C268" s="91"/>
+      <c r="B268" s="92"/>
+      <c r="C268" s="89"/>
       <c r="D268" s="44"/>
       <c r="E268" s="41"/>
       <c r="F268" s="45"/>
@@ -5359,7 +5363,7 @@
       <c r="K268" s="39"/>
     </row>
     <row r="269" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B269" s="95"/>
+      <c r="B269" s="93"/>
       <c r="C269" s="90"/>
       <c r="D269" s="44"/>
       <c r="E269" s="41"/>
@@ -5371,8 +5375,8 @@
       <c r="K269" s="39"/>
     </row>
     <row r="270" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B270" s="93"/>
-      <c r="C270" s="91"/>
+      <c r="B270" s="92"/>
+      <c r="C270" s="89"/>
       <c r="D270" s="44"/>
       <c r="E270" s="41"/>
       <c r="F270" s="45"/>
@@ -5383,7 +5387,7 @@
       <c r="K270" s="39"/>
     </row>
     <row r="271" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B271" s="95"/>
+      <c r="B271" s="93"/>
       <c r="C271" s="90"/>
       <c r="D271" s="44"/>
       <c r="E271" s="41"/>
@@ -5395,8 +5399,8 @@
       <c r="K271" s="39"/>
     </row>
     <row r="272" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B272" s="93"/>
-      <c r="C272" s="91"/>
+      <c r="B272" s="92"/>
+      <c r="C272" s="89"/>
       <c r="D272" s="44"/>
       <c r="E272" s="41"/>
       <c r="F272" s="45"/>
@@ -5407,7 +5411,7 @@
       <c r="K272" s="39"/>
     </row>
     <row r="273" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B273" s="95"/>
+      <c r="B273" s="93"/>
       <c r="C273" s="90"/>
       <c r="D273" s="44"/>
       <c r="E273" s="41"/>
@@ -5419,8 +5423,8 @@
       <c r="K273" s="39"/>
     </row>
     <row r="274" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B274" s="93"/>
-      <c r="C274" s="91"/>
+      <c r="B274" s="92"/>
+      <c r="C274" s="89"/>
       <c r="D274" s="44"/>
       <c r="E274" s="41"/>
       <c r="F274" s="45"/>
@@ -5431,7 +5435,7 @@
       <c r="K274" s="39"/>
     </row>
     <row r="275" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B275" s="95"/>
+      <c r="B275" s="93"/>
       <c r="C275" s="90"/>
       <c r="D275" s="44"/>
       <c r="E275" s="41"/>
@@ -5443,8 +5447,8 @@
       <c r="K275" s="39"/>
     </row>
     <row r="276" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B276" s="93"/>
-      <c r="C276" s="91"/>
+      <c r="B276" s="92"/>
+      <c r="C276" s="89"/>
       <c r="D276" s="44"/>
       <c r="E276" s="41"/>
       <c r="F276" s="45"/>
@@ -5455,7 +5459,7 @@
       <c r="K276" s="39"/>
     </row>
     <row r="277" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B277" s="95"/>
+      <c r="B277" s="93"/>
       <c r="C277" s="90"/>
       <c r="D277" s="44"/>
       <c r="E277" s="41"/>
@@ -5467,8 +5471,8 @@
       <c r="K277" s="39"/>
     </row>
     <row r="278" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B278" s="93"/>
-      <c r="C278" s="91"/>
+      <c r="B278" s="92"/>
+      <c r="C278" s="89"/>
       <c r="D278" s="44"/>
       <c r="E278" s="41"/>
       <c r="F278" s="45"/>
@@ -5479,7 +5483,7 @@
       <c r="K278" s="39"/>
     </row>
     <row r="279" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B279" s="95"/>
+      <c r="B279" s="93"/>
       <c r="C279" s="90"/>
       <c r="D279" s="44"/>
       <c r="E279" s="41"/>
@@ -5491,8 +5495,8 @@
       <c r="K279" s="39"/>
     </row>
     <row r="280" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B280" s="93"/>
-      <c r="C280" s="91"/>
+      <c r="B280" s="92"/>
+      <c r="C280" s="89"/>
       <c r="D280" s="44"/>
       <c r="E280" s="41"/>
       <c r="F280" s="45"/>
@@ -5503,7 +5507,7 @@
       <c r="K280" s="39"/>
     </row>
     <row r="281" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B281" s="95"/>
+      <c r="B281" s="93"/>
       <c r="C281" s="90"/>
       <c r="D281" s="44"/>
       <c r="E281" s="41"/>
@@ -5515,8 +5519,8 @@
       <c r="K281" s="39"/>
     </row>
     <row r="282" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B282" s="93"/>
-      <c r="C282" s="91"/>
+      <c r="B282" s="92"/>
+      <c r="C282" s="89"/>
       <c r="D282" s="44"/>
       <c r="E282" s="41"/>
       <c r="F282" s="45"/>
@@ -5527,7 +5531,7 @@
       <c r="K282" s="39"/>
     </row>
     <row r="283" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B283" s="95"/>
+      <c r="B283" s="93"/>
       <c r="C283" s="90"/>
       <c r="D283" s="44"/>
       <c r="E283" s="41"/>
@@ -5539,8 +5543,8 @@
       <c r="K283" s="39"/>
     </row>
     <row r="284" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B284" s="93"/>
-      <c r="C284" s="91"/>
+      <c r="B284" s="92"/>
+      <c r="C284" s="89"/>
       <c r="D284" s="44"/>
       <c r="E284" s="41"/>
       <c r="F284" s="45"/>
@@ -5551,7 +5555,7 @@
       <c r="K284" s="39"/>
     </row>
     <row r="285" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B285" s="95"/>
+      <c r="B285" s="93"/>
       <c r="C285" s="90"/>
       <c r="D285" s="44"/>
       <c r="E285" s="41"/>
@@ -5563,8 +5567,8 @@
       <c r="K285" s="39"/>
     </row>
     <row r="286" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B286" s="93"/>
-      <c r="C286" s="91"/>
+      <c r="B286" s="92"/>
+      <c r="C286" s="89"/>
       <c r="D286" s="44"/>
       <c r="E286" s="41"/>
       <c r="F286" s="45"/>
@@ -5575,7 +5579,7 @@
       <c r="K286" s="39"/>
     </row>
     <row r="287" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B287" s="95"/>
+      <c r="B287" s="93"/>
       <c r="C287" s="90"/>
       <c r="D287" s="44"/>
       <c r="E287" s="41"/>
@@ -5587,8 +5591,8 @@
       <c r="K287" s="39"/>
     </row>
     <row r="288" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B288" s="93"/>
-      <c r="C288" s="91"/>
+      <c r="B288" s="92"/>
+      <c r="C288" s="89"/>
       <c r="D288" s="44"/>
       <c r="E288" s="41"/>
       <c r="F288" s="45"/>
@@ -5599,7 +5603,7 @@
       <c r="K288" s="39"/>
     </row>
     <row r="289" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B289" s="95"/>
+      <c r="B289" s="93"/>
       <c r="C289" s="90"/>
       <c r="D289" s="44"/>
       <c r="E289" s="41"/>
@@ -5611,8 +5615,8 @@
       <c r="K289" s="39"/>
     </row>
     <row r="290" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B290" s="93"/>
-      <c r="C290" s="91"/>
+      <c r="B290" s="92"/>
+      <c r="C290" s="89"/>
       <c r="D290" s="44"/>
       <c r="E290" s="41"/>
       <c r="F290" s="45"/>
@@ -5623,7 +5627,7 @@
       <c r="K290" s="39"/>
     </row>
     <row r="291" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B291" s="95"/>
+      <c r="B291" s="93"/>
       <c r="C291" s="90"/>
       <c r="D291" s="44"/>
       <c r="E291" s="41"/>
@@ -5635,8 +5639,8 @@
       <c r="K291" s="39"/>
     </row>
     <row r="292" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B292" s="93"/>
-      <c r="C292" s="91"/>
+      <c r="B292" s="92"/>
+      <c r="C292" s="89"/>
       <c r="D292" s="44"/>
       <c r="E292" s="41"/>
       <c r="F292" s="45"/>
@@ -5647,7 +5651,7 @@
       <c r="K292" s="39"/>
     </row>
     <row r="293" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B293" s="95"/>
+      <c r="B293" s="93"/>
       <c r="C293" s="90"/>
       <c r="D293" s="44"/>
       <c r="E293" s="41"/>
@@ -5659,8 +5663,8 @@
       <c r="K293" s="39"/>
     </row>
     <row r="294" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B294" s="93"/>
-      <c r="C294" s="91"/>
+      <c r="B294" s="92"/>
+      <c r="C294" s="89"/>
       <c r="D294" s="44"/>
       <c r="E294" s="41"/>
       <c r="F294" s="45"/>
@@ -5671,7 +5675,7 @@
       <c r="K294" s="39"/>
     </row>
     <row r="295" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B295" s="95"/>
+      <c r="B295" s="93"/>
       <c r="C295" s="90"/>
       <c r="D295" s="44"/>
       <c r="E295" s="41"/>
@@ -5683,8 +5687,8 @@
       <c r="K295" s="39"/>
     </row>
     <row r="296" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B296" s="93"/>
-      <c r="C296" s="91"/>
+      <c r="B296" s="92"/>
+      <c r="C296" s="89"/>
       <c r="D296" s="44"/>
       <c r="E296" s="41"/>
       <c r="F296" s="45"/>
@@ -5695,7 +5699,7 @@
       <c r="K296" s="39"/>
     </row>
     <row r="297" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B297" s="95"/>
+      <c r="B297" s="93"/>
       <c r="C297" s="90"/>
       <c r="D297" s="44"/>
       <c r="E297" s="41"/>
@@ -5707,8 +5711,8 @@
       <c r="K297" s="39"/>
     </row>
     <row r="298" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B298" s="93"/>
-      <c r="C298" s="91"/>
+      <c r="B298" s="92"/>
+      <c r="C298" s="89"/>
       <c r="D298" s="44"/>
       <c r="E298" s="41"/>
       <c r="F298" s="45"/>
@@ -5719,7 +5723,7 @@
       <c r="K298" s="39"/>
     </row>
     <row r="299" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B299" s="95"/>
+      <c r="B299" s="93"/>
       <c r="C299" s="90"/>
       <c r="D299" s="44"/>
       <c r="E299" s="41"/>
@@ -5731,8 +5735,8 @@
       <c r="K299" s="39"/>
     </row>
     <row r="300" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B300" s="93"/>
-      <c r="C300" s="91"/>
+      <c r="B300" s="92"/>
+      <c r="C300" s="89"/>
       <c r="D300" s="44"/>
       <c r="E300" s="41"/>
       <c r="F300" s="45"/>
@@ -5743,7 +5747,7 @@
       <c r="K300" s="39"/>
     </row>
     <row r="301" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B301" s="95"/>
+      <c r="B301" s="93"/>
       <c r="C301" s="90"/>
       <c r="D301" s="44"/>
       <c r="E301" s="41"/>
@@ -5755,8 +5759,8 @@
       <c r="K301" s="39"/>
     </row>
     <row r="302" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B302" s="93"/>
-      <c r="C302" s="91"/>
+      <c r="B302" s="92"/>
+      <c r="C302" s="89"/>
       <c r="D302" s="44"/>
       <c r="E302" s="41"/>
       <c r="F302" s="45"/>
@@ -5767,7 +5771,7 @@
       <c r="K302" s="39"/>
     </row>
     <row r="303" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B303" s="95"/>
+      <c r="B303" s="93"/>
       <c r="C303" s="90"/>
       <c r="D303" s="44"/>
       <c r="E303" s="41"/>
@@ -5779,8 +5783,8 @@
       <c r="K303" s="39"/>
     </row>
     <row r="304" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B304" s="93"/>
-      <c r="C304" s="91"/>
+      <c r="B304" s="92"/>
+      <c r="C304" s="89"/>
       <c r="D304" s="44"/>
       <c r="E304" s="41"/>
       <c r="F304" s="45"/>
@@ -5791,7 +5795,7 @@
       <c r="K304" s="39"/>
     </row>
     <row r="305" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B305" s="95"/>
+      <c r="B305" s="93"/>
       <c r="C305" s="90"/>
       <c r="D305" s="44"/>
       <c r="E305" s="41"/>
@@ -5803,8 +5807,8 @@
       <c r="K305" s="39"/>
     </row>
     <row r="306" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B306" s="93"/>
-      <c r="C306" s="91"/>
+      <c r="B306" s="92"/>
+      <c r="C306" s="89"/>
       <c r="D306" s="44"/>
       <c r="E306" s="41"/>
       <c r="F306" s="45"/>
@@ -5815,7 +5819,7 @@
       <c r="K306" s="39"/>
     </row>
     <row r="307" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B307" s="95"/>
+      <c r="B307" s="93"/>
       <c r="C307" s="90"/>
       <c r="D307" s="44"/>
       <c r="E307" s="41"/>
@@ -5827,8 +5831,8 @@
       <c r="K307" s="39"/>
     </row>
     <row r="308" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B308" s="93"/>
-      <c r="C308" s="91"/>
+      <c r="B308" s="92"/>
+      <c r="C308" s="89"/>
       <c r="D308" s="44"/>
       <c r="E308" s="41"/>
       <c r="F308" s="45"/>
@@ -5839,7 +5843,7 @@
       <c r="K308" s="39"/>
     </row>
     <row r="309" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B309" s="95"/>
+      <c r="B309" s="93"/>
       <c r="C309" s="90"/>
       <c r="D309" s="44"/>
       <c r="E309" s="41"/>
@@ -5851,8 +5855,8 @@
       <c r="K309" s="39"/>
     </row>
     <row r="310" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B310" s="93"/>
-      <c r="C310" s="91"/>
+      <c r="B310" s="92"/>
+      <c r="C310" s="89"/>
       <c r="D310" s="44"/>
       <c r="E310" s="41"/>
       <c r="F310" s="45"/>
@@ -5863,7 +5867,7 @@
       <c r="K310" s="39"/>
     </row>
     <row r="311" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B311" s="95"/>
+      <c r="B311" s="93"/>
       <c r="C311" s="90"/>
       <c r="D311" s="44"/>
       <c r="E311" s="41"/>
@@ -5875,8 +5879,8 @@
       <c r="K311" s="39"/>
     </row>
     <row r="312" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B312" s="93"/>
-      <c r="C312" s="91"/>
+      <c r="B312" s="92"/>
+      <c r="C312" s="89"/>
       <c r="D312" s="44"/>
       <c r="E312" s="41"/>
       <c r="F312" s="45"/>
@@ -5887,7 +5891,7 @@
       <c r="K312" s="39"/>
     </row>
     <row r="313" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B313" s="95"/>
+      <c r="B313" s="93"/>
       <c r="C313" s="90"/>
       <c r="D313" s="44"/>
       <c r="E313" s="41"/>
@@ -5899,8 +5903,8 @@
       <c r="K313" s="39"/>
     </row>
     <row r="314" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B314" s="93"/>
-      <c r="C314" s="91"/>
+      <c r="B314" s="92"/>
+      <c r="C314" s="89"/>
       <c r="D314" s="44"/>
       <c r="E314" s="41"/>
       <c r="F314" s="45"/>
@@ -5911,7 +5915,7 @@
       <c r="K314" s="39"/>
     </row>
     <row r="315" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B315" s="95"/>
+      <c r="B315" s="93"/>
       <c r="C315" s="90"/>
       <c r="D315" s="44"/>
       <c r="E315" s="41"/>
@@ -5923,8 +5927,8 @@
       <c r="K315" s="39"/>
     </row>
     <row r="316" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B316" s="93"/>
-      <c r="C316" s="91"/>
+      <c r="B316" s="92"/>
+      <c r="C316" s="89"/>
       <c r="D316" s="44"/>
       <c r="E316" s="41"/>
       <c r="F316" s="45"/>
@@ -5935,7 +5939,7 @@
       <c r="K316" s="39"/>
     </row>
     <row r="317" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B317" s="95"/>
+      <c r="B317" s="93"/>
       <c r="C317" s="90"/>
       <c r="D317" s="44"/>
       <c r="E317" s="41"/>
@@ -5947,8 +5951,8 @@
       <c r="K317" s="39"/>
     </row>
     <row r="318" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B318" s="93"/>
-      <c r="C318" s="91"/>
+      <c r="B318" s="92"/>
+      <c r="C318" s="89"/>
       <c r="D318" s="44"/>
       <c r="E318" s="41"/>
       <c r="F318" s="45"/>
@@ -5959,7 +5963,7 @@
       <c r="K318" s="39"/>
     </row>
     <row r="319" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B319" s="95"/>
+      <c r="B319" s="93"/>
       <c r="C319" s="90"/>
       <c r="D319" s="44"/>
       <c r="E319" s="41"/>
@@ -5971,8 +5975,8 @@
       <c r="K319" s="39"/>
     </row>
     <row r="320" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B320" s="93"/>
-      <c r="C320" s="91"/>
+      <c r="B320" s="92"/>
+      <c r="C320" s="89"/>
       <c r="D320" s="44"/>
       <c r="E320" s="41"/>
       <c r="F320" s="45"/>
@@ -5983,7 +5987,7 @@
       <c r="K320" s="39"/>
     </row>
     <row r="321" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B321" s="95"/>
+      <c r="B321" s="93"/>
       <c r="C321" s="90"/>
       <c r="D321" s="44"/>
       <c r="E321" s="41"/>
@@ -5995,8 +5999,8 @@
       <c r="K321" s="39"/>
     </row>
     <row r="322" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B322" s="93"/>
-      <c r="C322" s="91"/>
+      <c r="B322" s="92"/>
+      <c r="C322" s="89"/>
       <c r="D322" s="44"/>
       <c r="E322" s="41"/>
       <c r="F322" s="45"/>
@@ -6007,7 +6011,7 @@
       <c r="K322" s="39"/>
     </row>
     <row r="323" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B323" s="95"/>
+      <c r="B323" s="93"/>
       <c r="C323" s="90"/>
       <c r="D323" s="44"/>
       <c r="E323" s="41"/>
@@ -6019,8 +6023,8 @@
       <c r="K323" s="39"/>
     </row>
     <row r="324" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B324" s="93"/>
-      <c r="C324" s="91"/>
+      <c r="B324" s="92"/>
+      <c r="C324" s="89"/>
       <c r="D324" s="44"/>
       <c r="E324" s="41"/>
       <c r="F324" s="45"/>
@@ -6031,7 +6035,7 @@
       <c r="K324" s="39"/>
     </row>
     <row r="325" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B325" s="95"/>
+      <c r="B325" s="93"/>
       <c r="C325" s="90"/>
       <c r="D325" s="44"/>
       <c r="E325" s="41"/>
@@ -6043,8 +6047,8 @@
       <c r="K325" s="39"/>
     </row>
     <row r="326" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B326" s="93"/>
-      <c r="C326" s="91"/>
+      <c r="B326" s="92"/>
+      <c r="C326" s="89"/>
       <c r="D326" s="44"/>
       <c r="E326" s="41"/>
       <c r="F326" s="45"/>
@@ -6055,7 +6059,7 @@
       <c r="K326" s="39"/>
     </row>
     <row r="327" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B327" s="95"/>
+      <c r="B327" s="93"/>
       <c r="C327" s="90"/>
       <c r="D327" s="44"/>
       <c r="E327" s="41"/>
@@ -6067,8 +6071,8 @@
       <c r="K327" s="39"/>
     </row>
     <row r="328" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B328" s="93"/>
-      <c r="C328" s="91"/>
+      <c r="B328" s="92"/>
+      <c r="C328" s="89"/>
       <c r="D328" s="44"/>
       <c r="E328" s="41"/>
       <c r="F328" s="45"/>
@@ -6079,7 +6083,7 @@
       <c r="K328" s="39"/>
     </row>
     <row r="329" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B329" s="95"/>
+      <c r="B329" s="93"/>
       <c r="C329" s="90"/>
       <c r="D329" s="44"/>
       <c r="E329" s="41"/>
@@ -6091,8 +6095,8 @@
       <c r="K329" s="39"/>
     </row>
     <row r="330" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B330" s="93"/>
-      <c r="C330" s="91"/>
+      <c r="B330" s="92"/>
+      <c r="C330" s="89"/>
       <c r="D330" s="44"/>
       <c r="E330" s="41"/>
       <c r="F330" s="45"/>
@@ -6103,7 +6107,7 @@
       <c r="K330" s="39"/>
     </row>
     <row r="331" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B331" s="95"/>
+      <c r="B331" s="93"/>
       <c r="C331" s="90"/>
       <c r="D331" s="44"/>
       <c r="E331" s="41"/>
@@ -6115,8 +6119,8 @@
       <c r="K331" s="39"/>
     </row>
     <row r="332" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B332" s="93"/>
-      <c r="C332" s="91"/>
+      <c r="B332" s="92"/>
+      <c r="C332" s="89"/>
       <c r="D332" s="44"/>
       <c r="E332" s="41"/>
       <c r="F332" s="45"/>
@@ -6127,7 +6131,7 @@
       <c r="K332" s="39"/>
     </row>
     <row r="333" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B333" s="95"/>
+      <c r="B333" s="93"/>
       <c r="C333" s="90"/>
       <c r="D333" s="44"/>
       <c r="E333" s="41"/>
@@ -6139,8 +6143,8 @@
       <c r="K333" s="39"/>
     </row>
     <row r="334" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B334" s="93"/>
-      <c r="C334" s="91"/>
+      <c r="B334" s="92"/>
+      <c r="C334" s="89"/>
       <c r="D334" s="44"/>
       <c r="E334" s="41"/>
       <c r="F334" s="45"/>
@@ -6151,7 +6155,7 @@
       <c r="K334" s="39"/>
     </row>
     <row r="335" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B335" s="95"/>
+      <c r="B335" s="93"/>
       <c r="C335" s="90"/>
       <c r="D335" s="44"/>
       <c r="E335" s="41"/>
@@ -6163,8 +6167,8 @@
       <c r="K335" s="39"/>
     </row>
     <row r="336" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B336" s="93"/>
-      <c r="C336" s="91"/>
+      <c r="B336" s="92"/>
+      <c r="C336" s="89"/>
       <c r="D336" s="44"/>
       <c r="E336" s="41"/>
       <c r="F336" s="45"/>
@@ -6175,7 +6179,7 @@
       <c r="K336" s="39"/>
     </row>
     <row r="337" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B337" s="95"/>
+      <c r="B337" s="93"/>
       <c r="C337" s="90"/>
       <c r="D337" s="44"/>
       <c r="E337" s="41"/>
@@ -6187,8 +6191,8 @@
       <c r="K337" s="39"/>
     </row>
     <row r="338" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B338" s="93"/>
-      <c r="C338" s="91"/>
+      <c r="B338" s="92"/>
+      <c r="C338" s="89"/>
       <c r="D338" s="44"/>
       <c r="E338" s="41"/>
       <c r="F338" s="45"/>
@@ -6199,7 +6203,7 @@
       <c r="K338" s="39"/>
     </row>
     <row r="339" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B339" s="95"/>
+      <c r="B339" s="93"/>
       <c r="C339" s="90"/>
       <c r="D339" s="44"/>
       <c r="E339" s="41"/>
@@ -6211,8 +6215,8 @@
       <c r="K339" s="39"/>
     </row>
     <row r="340" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B340" s="93"/>
-      <c r="C340" s="91"/>
+      <c r="B340" s="92"/>
+      <c r="C340" s="89"/>
       <c r="D340" s="44"/>
       <c r="E340" s="41"/>
       <c r="F340" s="45"/>
@@ -6223,7 +6227,7 @@
       <c r="K340" s="39"/>
     </row>
     <row r="341" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B341" s="95"/>
+      <c r="B341" s="93"/>
       <c r="C341" s="90"/>
       <c r="D341" s="44"/>
       <c r="E341" s="41"/>
@@ -6235,8 +6239,8 @@
       <c r="K341" s="39"/>
     </row>
     <row r="342" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B342" s="93"/>
-      <c r="C342" s="91"/>
+      <c r="B342" s="92"/>
+      <c r="C342" s="89"/>
       <c r="D342" s="44"/>
       <c r="E342" s="41"/>
       <c r="F342" s="45"/>
@@ -6247,7 +6251,7 @@
       <c r="K342" s="39"/>
     </row>
     <row r="343" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B343" s="95"/>
+      <c r="B343" s="93"/>
       <c r="C343" s="90"/>
       <c r="D343" s="44"/>
       <c r="E343" s="41"/>
@@ -6259,8 +6263,8 @@
       <c r="K343" s="39"/>
     </row>
     <row r="344" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B344" s="93"/>
-      <c r="C344" s="91"/>
+      <c r="B344" s="92"/>
+      <c r="C344" s="89"/>
       <c r="D344" s="44"/>
       <c r="E344" s="41"/>
       <c r="F344" s="45"/>
@@ -6271,7 +6275,7 @@
       <c r="K344" s="39"/>
     </row>
     <row r="345" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B345" s="95"/>
+      <c r="B345" s="93"/>
       <c r="C345" s="90"/>
       <c r="D345" s="44"/>
       <c r="E345" s="41"/>
@@ -6283,8 +6287,8 @@
       <c r="K345" s="39"/>
     </row>
     <row r="346" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B346" s="93"/>
-      <c r="C346" s="91"/>
+      <c r="B346" s="92"/>
+      <c r="C346" s="89"/>
       <c r="D346" s="44"/>
       <c r="E346" s="41"/>
       <c r="F346" s="45"/>
@@ -6295,7 +6299,7 @@
       <c r="K346" s="39"/>
     </row>
     <row r="347" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B347" s="95"/>
+      <c r="B347" s="93"/>
       <c r="C347" s="90"/>
       <c r="D347" s="44"/>
       <c r="E347" s="41"/>
@@ -6307,8 +6311,8 @@
       <c r="K347" s="39"/>
     </row>
     <row r="348" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B348" s="93"/>
-      <c r="C348" s="91"/>
+      <c r="B348" s="92"/>
+      <c r="C348" s="89"/>
       <c r="D348" s="44"/>
       <c r="E348" s="41"/>
       <c r="F348" s="45"/>
@@ -6319,7 +6323,7 @@
       <c r="K348" s="39"/>
     </row>
     <row r="349" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B349" s="95"/>
+      <c r="B349" s="93"/>
       <c r="C349" s="90"/>
       <c r="D349" s="44"/>
       <c r="E349" s="41"/>
@@ -6331,8 +6335,8 @@
       <c r="K349" s="39"/>
     </row>
     <row r="350" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B350" s="93"/>
-      <c r="C350" s="91"/>
+      <c r="B350" s="92"/>
+      <c r="C350" s="89"/>
       <c r="D350" s="44"/>
       <c r="E350" s="41"/>
       <c r="F350" s="45"/>
@@ -6343,7 +6347,7 @@
       <c r="K350" s="39"/>
     </row>
     <row r="351" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B351" s="95"/>
+      <c r="B351" s="93"/>
       <c r="C351" s="90"/>
       <c r="D351" s="44"/>
       <c r="E351" s="41"/>
@@ -6355,8 +6359,8 @@
       <c r="K351" s="39"/>
     </row>
     <row r="352" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B352" s="93"/>
-      <c r="C352" s="91"/>
+      <c r="B352" s="92"/>
+      <c r="C352" s="89"/>
       <c r="D352" s="44"/>
       <c r="E352" s="41"/>
       <c r="F352" s="45"/>
@@ -6367,7 +6371,7 @@
       <c r="K352" s="39"/>
     </row>
     <row r="353" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B353" s="95"/>
+      <c r="B353" s="93"/>
       <c r="C353" s="90"/>
       <c r="D353" s="44"/>
       <c r="E353" s="41"/>
@@ -6379,8 +6383,8 @@
       <c r="K353" s="39"/>
     </row>
     <row r="354" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B354" s="93"/>
-      <c r="C354" s="91"/>
+      <c r="B354" s="92"/>
+      <c r="C354" s="89"/>
       <c r="D354" s="44"/>
       <c r="E354" s="41"/>
       <c r="F354" s="45"/>
@@ -6391,7 +6395,7 @@
       <c r="K354" s="39"/>
     </row>
     <row r="355" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B355" s="95"/>
+      <c r="B355" s="93"/>
       <c r="C355" s="90"/>
       <c r="D355" s="44"/>
       <c r="E355" s="41"/>
@@ -6403,8 +6407,8 @@
       <c r="K355" s="39"/>
     </row>
     <row r="356" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B356" s="93"/>
-      <c r="C356" s="91"/>
+      <c r="B356" s="92"/>
+      <c r="C356" s="89"/>
       <c r="D356" s="44"/>
       <c r="E356" s="41"/>
       <c r="F356" s="45"/>
@@ -6415,7 +6419,7 @@
       <c r="K356" s="39"/>
     </row>
     <row r="357" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B357" s="95"/>
+      <c r="B357" s="93"/>
       <c r="C357" s="90"/>
       <c r="D357" s="44"/>
       <c r="E357" s="41"/>
@@ -6427,8 +6431,8 @@
       <c r="K357" s="39"/>
     </row>
     <row r="358" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B358" s="93"/>
-      <c r="C358" s="91"/>
+      <c r="B358" s="92"/>
+      <c r="C358" s="89"/>
       <c r="D358" s="44"/>
       <c r="E358" s="41"/>
       <c r="F358" s="45"/>
@@ -6439,7 +6443,7 @@
       <c r="K358" s="39"/>
     </row>
     <row r="359" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B359" s="95"/>
+      <c r="B359" s="93"/>
       <c r="C359" s="90"/>
       <c r="D359" s="44"/>
       <c r="E359" s="41"/>
@@ -6451,8 +6455,8 @@
       <c r="K359" s="39"/>
     </row>
     <row r="360" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B360" s="93"/>
-      <c r="C360" s="91"/>
+      <c r="B360" s="92"/>
+      <c r="C360" s="89"/>
       <c r="D360" s="44"/>
       <c r="E360" s="41"/>
       <c r="F360" s="45"/>
@@ -6463,7 +6467,7 @@
       <c r="K360" s="39"/>
     </row>
     <row r="361" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B361" s="95"/>
+      <c r="B361" s="93"/>
       <c r="C361" s="90"/>
       <c r="D361" s="44"/>
       <c r="E361" s="41"/>
@@ -6475,8 +6479,8 @@
       <c r="K361" s="39"/>
     </row>
     <row r="362" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B362" s="93"/>
-      <c r="C362" s="91"/>
+      <c r="B362" s="92"/>
+      <c r="C362" s="89"/>
       <c r="D362" s="44"/>
       <c r="E362" s="41"/>
       <c r="F362" s="45"/>
@@ -6487,7 +6491,7 @@
       <c r="K362" s="39"/>
     </row>
     <row r="363" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B363" s="95"/>
+      <c r="B363" s="93"/>
       <c r="C363" s="90"/>
       <c r="D363" s="44"/>
       <c r="E363" s="41"/>
@@ -6499,8 +6503,8 @@
       <c r="K363" s="39"/>
     </row>
     <row r="364" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B364" s="93"/>
-      <c r="C364" s="91"/>
+      <c r="B364" s="92"/>
+      <c r="C364" s="89"/>
       <c r="D364" s="44"/>
       <c r="E364" s="41"/>
       <c r="F364" s="45"/>
@@ -6511,7 +6515,7 @@
       <c r="K364" s="39"/>
     </row>
     <row r="365" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B365" s="95"/>
+      <c r="B365" s="93"/>
       <c r="C365" s="90"/>
       <c r="D365" s="44"/>
       <c r="E365" s="41"/>
@@ -6523,8 +6527,8 @@
       <c r="K365" s="39"/>
     </row>
     <row r="366" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B366" s="93"/>
-      <c r="C366" s="91"/>
+      <c r="B366" s="92"/>
+      <c r="C366" s="89"/>
       <c r="D366" s="44"/>
       <c r="E366" s="41"/>
       <c r="F366" s="45"/>
@@ -6535,7 +6539,7 @@
       <c r="K366" s="39"/>
     </row>
     <row r="367" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B367" s="95"/>
+      <c r="B367" s="93"/>
       <c r="C367" s="90"/>
       <c r="D367" s="44"/>
       <c r="E367" s="41"/>
@@ -6547,8 +6551,8 @@
       <c r="K367" s="39"/>
     </row>
     <row r="368" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B368" s="93"/>
-      <c r="C368" s="91"/>
+      <c r="B368" s="92"/>
+      <c r="C368" s="89"/>
       <c r="D368" s="44"/>
       <c r="E368" s="41"/>
       <c r="F368" s="45"/>
@@ -6559,7 +6563,7 @@
       <c r="K368" s="39"/>
     </row>
     <row r="369" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B369" s="95"/>
+      <c r="B369" s="93"/>
       <c r="C369" s="90"/>
       <c r="D369" s="44"/>
       <c r="E369" s="41"/>
@@ -6571,8 +6575,8 @@
       <c r="K369" s="39"/>
     </row>
     <row r="370" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B370" s="93"/>
-      <c r="C370" s="91"/>
+      <c r="B370" s="92"/>
+      <c r="C370" s="89"/>
       <c r="D370" s="44"/>
       <c r="E370" s="41"/>
       <c r="F370" s="45"/>
@@ -6583,7 +6587,7 @@
       <c r="K370" s="39"/>
     </row>
     <row r="371" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B371" s="95"/>
+      <c r="B371" s="93"/>
       <c r="C371" s="90"/>
       <c r="D371" s="44"/>
       <c r="E371" s="41"/>
@@ -6595,8 +6599,8 @@
       <c r="K371" s="39"/>
     </row>
     <row r="372" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B372" s="93"/>
-      <c r="C372" s="91"/>
+      <c r="B372" s="92"/>
+      <c r="C372" s="89"/>
       <c r="D372" s="44"/>
       <c r="E372" s="41"/>
       <c r="F372" s="45"/>
@@ -6607,7 +6611,7 @@
       <c r="K372" s="39"/>
     </row>
     <row r="373" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B373" s="95"/>
+      <c r="B373" s="93"/>
       <c r="C373" s="90"/>
       <c r="D373" s="44"/>
       <c r="E373" s="41"/>
@@ -6619,8 +6623,8 @@
       <c r="K373" s="39"/>
     </row>
     <row r="374" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B374" s="93"/>
-      <c r="C374" s="91"/>
+      <c r="B374" s="92"/>
+      <c r="C374" s="89"/>
       <c r="D374" s="44"/>
       <c r="E374" s="41"/>
       <c r="F374" s="45"/>
@@ -6631,7 +6635,7 @@
       <c r="K374" s="39"/>
     </row>
     <row r="375" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B375" s="95"/>
+      <c r="B375" s="93"/>
       <c r="C375" s="90"/>
       <c r="D375" s="44"/>
       <c r="E375" s="41"/>
@@ -6643,8 +6647,8 @@
       <c r="K375" s="39"/>
     </row>
     <row r="376" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B376" s="93"/>
-      <c r="C376" s="91"/>
+      <c r="B376" s="92"/>
+      <c r="C376" s="89"/>
       <c r="D376" s="44"/>
       <c r="E376" s="41"/>
       <c r="F376" s="45"/>
@@ -6655,7 +6659,7 @@
       <c r="K376" s="39"/>
     </row>
     <row r="377" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B377" s="95"/>
+      <c r="B377" s="93"/>
       <c r="C377" s="90"/>
       <c r="D377" s="44"/>
       <c r="E377" s="41"/>
@@ -6667,8 +6671,8 @@
       <c r="K377" s="39"/>
     </row>
     <row r="378" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B378" s="93"/>
-      <c r="C378" s="91"/>
+      <c r="B378" s="92"/>
+      <c r="C378" s="89"/>
       <c r="D378" s="44"/>
       <c r="E378" s="41"/>
       <c r="F378" s="45"/>
@@ -6679,7 +6683,7 @@
       <c r="K378" s="39"/>
     </row>
     <row r="379" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B379" s="95"/>
+      <c r="B379" s="93"/>
       <c r="C379" s="90"/>
       <c r="D379" s="44"/>
       <c r="E379" s="41"/>
@@ -6691,8 +6695,8 @@
       <c r="K379" s="39"/>
     </row>
     <row r="380" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B380" s="93"/>
-      <c r="C380" s="91"/>
+      <c r="B380" s="92"/>
+      <c r="C380" s="89"/>
       <c r="D380" s="44"/>
       <c r="E380" s="41"/>
       <c r="F380" s="45"/>
@@ -6703,7 +6707,7 @@
       <c r="K380" s="39"/>
     </row>
     <row r="381" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B381" s="95"/>
+      <c r="B381" s="93"/>
       <c r="C381" s="90"/>
       <c r="D381" s="44"/>
       <c r="E381" s="41"/>
@@ -6715,8 +6719,8 @@
       <c r="K381" s="39"/>
     </row>
     <row r="382" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B382" s="93"/>
-      <c r="C382" s="91"/>
+      <c r="B382" s="92"/>
+      <c r="C382" s="89"/>
       <c r="D382" s="44"/>
       <c r="E382" s="41"/>
       <c r="F382" s="45"/>
@@ -6727,7 +6731,7 @@
       <c r="K382" s="39"/>
     </row>
     <row r="383" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B383" s="95"/>
+      <c r="B383" s="93"/>
       <c r="C383" s="90"/>
       <c r="D383" s="44"/>
       <c r="E383" s="41"/>
@@ -6739,8 +6743,8 @@
       <c r="K383" s="39"/>
     </row>
     <row r="384" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B384" s="93"/>
-      <c r="C384" s="91"/>
+      <c r="B384" s="92"/>
+      <c r="C384" s="89"/>
       <c r="D384" s="44"/>
       <c r="E384" s="41"/>
       <c r="F384" s="45"/>
@@ -6751,7 +6755,7 @@
       <c r="K384" s="39"/>
     </row>
     <row r="385" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B385" s="95"/>
+      <c r="B385" s="93"/>
       <c r="C385" s="90"/>
       <c r="D385" s="44"/>
       <c r="E385" s="41"/>
@@ -6763,8 +6767,8 @@
       <c r="K385" s="39"/>
     </row>
     <row r="386" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B386" s="93"/>
-      <c r="C386" s="91"/>
+      <c r="B386" s="92"/>
+      <c r="C386" s="89"/>
       <c r="D386" s="44"/>
       <c r="E386" s="41"/>
       <c r="F386" s="45"/>
@@ -6775,7 +6779,7 @@
       <c r="K386" s="39"/>
     </row>
     <row r="387" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B387" s="95"/>
+      <c r="B387" s="93"/>
       <c r="C387" s="90"/>
       <c r="D387" s="44"/>
       <c r="E387" s="41"/>
@@ -6787,8 +6791,8 @@
       <c r="K387" s="39"/>
     </row>
     <row r="388" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B388" s="93"/>
-      <c r="C388" s="91"/>
+      <c r="B388" s="92"/>
+      <c r="C388" s="89"/>
       <c r="D388" s="44"/>
       <c r="E388" s="41"/>
       <c r="F388" s="45"/>
@@ -6799,7 +6803,7 @@
       <c r="K388" s="39"/>
     </row>
     <row r="389" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B389" s="95"/>
+      <c r="B389" s="93"/>
       <c r="C389" s="90"/>
       <c r="D389" s="44"/>
       <c r="E389" s="41"/>
@@ -6811,8 +6815,8 @@
       <c r="K389" s="39"/>
     </row>
     <row r="390" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B390" s="93"/>
-      <c r="C390" s="91"/>
+      <c r="B390" s="92"/>
+      <c r="C390" s="89"/>
       <c r="D390" s="44"/>
       <c r="E390" s="41"/>
       <c r="F390" s="45"/>
@@ -6823,7 +6827,7 @@
       <c r="K390" s="39"/>
     </row>
     <row r="391" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B391" s="95"/>
+      <c r="B391" s="93"/>
       <c r="C391" s="90"/>
       <c r="D391" s="44"/>
       <c r="E391" s="41"/>
@@ -6835,8 +6839,8 @@
       <c r="K391" s="39"/>
     </row>
     <row r="392" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B392" s="93"/>
-      <c r="C392" s="91"/>
+      <c r="B392" s="92"/>
+      <c r="C392" s="89"/>
       <c r="D392" s="44"/>
       <c r="E392" s="41"/>
       <c r="F392" s="45"/>
@@ -6847,7 +6851,7 @@
       <c r="K392" s="39"/>
     </row>
     <row r="393" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B393" s="95"/>
+      <c r="B393" s="93"/>
       <c r="C393" s="90"/>
       <c r="D393" s="44"/>
       <c r="E393" s="41"/>
@@ -6859,8 +6863,8 @@
       <c r="K393" s="39"/>
     </row>
     <row r="394" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B394" s="93"/>
-      <c r="C394" s="91"/>
+      <c r="B394" s="92"/>
+      <c r="C394" s="89"/>
       <c r="D394" s="44"/>
       <c r="E394" s="41"/>
       <c r="F394" s="45"/>
@@ -6871,7 +6875,7 @@
       <c r="K394" s="39"/>
     </row>
     <row r="395" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B395" s="95"/>
+      <c r="B395" s="93"/>
       <c r="C395" s="90"/>
       <c r="D395" s="44"/>
       <c r="E395" s="41"/>
@@ -6883,8 +6887,8 @@
       <c r="K395" s="39"/>
     </row>
     <row r="396" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B396" s="93"/>
-      <c r="C396" s="91"/>
+      <c r="B396" s="92"/>
+      <c r="C396" s="89"/>
       <c r="D396" s="44"/>
       <c r="E396" s="41"/>
       <c r="F396" s="45"/>
@@ -6895,7 +6899,7 @@
       <c r="K396" s="39"/>
     </row>
     <row r="397" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B397" s="95"/>
+      <c r="B397" s="93"/>
       <c r="C397" s="90"/>
       <c r="D397" s="44"/>
       <c r="E397" s="41"/>
@@ -6907,8 +6911,8 @@
       <c r="K397" s="39"/>
     </row>
     <row r="398" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B398" s="93"/>
-      <c r="C398" s="91"/>
+      <c r="B398" s="92"/>
+      <c r="C398" s="89"/>
       <c r="D398" s="44"/>
       <c r="E398" s="41"/>
       <c r="F398" s="45"/>
@@ -6919,7 +6923,7 @@
       <c r="K398" s="39"/>
     </row>
     <row r="399" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B399" s="95"/>
+      <c r="B399" s="93"/>
       <c r="C399" s="90"/>
       <c r="D399" s="44"/>
       <c r="E399" s="41"/>
@@ -6931,8 +6935,8 @@
       <c r="K399" s="39"/>
     </row>
     <row r="400" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B400" s="93"/>
-      <c r="C400" s="91"/>
+      <c r="B400" s="92"/>
+      <c r="C400" s="89"/>
       <c r="D400" s="44"/>
       <c r="E400" s="41"/>
       <c r="F400" s="45"/>
@@ -6943,7 +6947,7 @@
       <c r="K400" s="39"/>
     </row>
     <row r="401" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B401" s="95"/>
+      <c r="B401" s="93"/>
       <c r="C401" s="90"/>
       <c r="D401" s="44"/>
       <c r="E401" s="41"/>
@@ -6955,8 +6959,8 @@
       <c r="K401" s="39"/>
     </row>
     <row r="402" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B402" s="93"/>
-      <c r="C402" s="91"/>
+      <c r="B402" s="92"/>
+      <c r="C402" s="89"/>
       <c r="D402" s="44"/>
       <c r="E402" s="41"/>
       <c r="F402" s="45"/>
@@ -6967,7 +6971,7 @@
       <c r="K402" s="39"/>
     </row>
     <row r="403" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B403" s="95"/>
+      <c r="B403" s="93"/>
       <c r="C403" s="90"/>
       <c r="D403" s="44"/>
       <c r="E403" s="41"/>
@@ -6979,8 +6983,8 @@
       <c r="K403" s="39"/>
     </row>
     <row r="404" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B404" s="93"/>
-      <c r="C404" s="91"/>
+      <c r="B404" s="92"/>
+      <c r="C404" s="89"/>
       <c r="D404" s="44"/>
       <c r="E404" s="41"/>
       <c r="F404" s="45"/>
@@ -6991,7 +6995,7 @@
       <c r="K404" s="39"/>
     </row>
     <row r="405" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B405" s="95"/>
+      <c r="B405" s="93"/>
       <c r="C405" s="90"/>
       <c r="D405" s="44"/>
       <c r="E405" s="41"/>
@@ -7003,8 +7007,8 @@
       <c r="K405" s="39"/>
     </row>
     <row r="406" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B406" s="93"/>
-      <c r="C406" s="91"/>
+      <c r="B406" s="92"/>
+      <c r="C406" s="89"/>
       <c r="D406" s="44"/>
       <c r="E406" s="41"/>
       <c r="F406" s="45"/>
@@ -7015,7 +7019,7 @@
       <c r="K406" s="39"/>
     </row>
     <row r="407" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B407" s="95"/>
+      <c r="B407" s="93"/>
       <c r="C407" s="90"/>
       <c r="D407" s="44"/>
       <c r="E407" s="41"/>
@@ -7027,8 +7031,8 @@
       <c r="K407" s="39"/>
     </row>
     <row r="408" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B408" s="93"/>
-      <c r="C408" s="91"/>
+      <c r="B408" s="92"/>
+      <c r="C408" s="89"/>
       <c r="D408" s="44"/>
       <c r="E408" s="41"/>
       <c r="F408" s="45"/>
@@ -7039,7 +7043,7 @@
       <c r="K408" s="39"/>
     </row>
     <row r="409" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B409" s="95"/>
+      <c r="B409" s="93"/>
       <c r="C409" s="90"/>
       <c r="D409" s="44"/>
       <c r="E409" s="41"/>
@@ -7051,8 +7055,8 @@
       <c r="K409" s="39"/>
     </row>
     <row r="410" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B410" s="93"/>
-      <c r="C410" s="91"/>
+      <c r="B410" s="92"/>
+      <c r="C410" s="89"/>
       <c r="D410" s="44"/>
       <c r="E410" s="41"/>
       <c r="F410" s="45"/>
@@ -7063,7 +7067,7 @@
       <c r="K410" s="39"/>
     </row>
     <row r="411" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B411" s="95"/>
+      <c r="B411" s="93"/>
       <c r="C411" s="90"/>
       <c r="D411" s="44"/>
       <c r="E411" s="41"/>
@@ -7075,8 +7079,8 @@
       <c r="K411" s="39"/>
     </row>
     <row r="412" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B412" s="93"/>
-      <c r="C412" s="91"/>
+      <c r="B412" s="92"/>
+      <c r="C412" s="89"/>
       <c r="D412" s="44"/>
       <c r="E412" s="41"/>
       <c r="F412" s="45"/>
@@ -7087,7 +7091,7 @@
       <c r="K412" s="39"/>
     </row>
     <row r="413" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B413" s="95"/>
+      <c r="B413" s="93"/>
       <c r="C413" s="90"/>
       <c r="D413" s="44"/>
       <c r="E413" s="41"/>
@@ -7099,8 +7103,8 @@
       <c r="K413" s="39"/>
     </row>
     <row r="414" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B414" s="93"/>
-      <c r="C414" s="91"/>
+      <c r="B414" s="92"/>
+      <c r="C414" s="89"/>
       <c r="D414" s="44"/>
       <c r="E414" s="41"/>
       <c r="F414" s="45"/>
@@ -7111,7 +7115,7 @@
       <c r="K414" s="39"/>
     </row>
     <row r="415" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B415" s="95"/>
+      <c r="B415" s="93"/>
       <c r="C415" s="90"/>
       <c r="D415" s="44"/>
       <c r="E415" s="41"/>
@@ -7123,8 +7127,8 @@
       <c r="K415" s="39"/>
     </row>
     <row r="416" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B416" s="93"/>
-      <c r="C416" s="91"/>
+      <c r="B416" s="92"/>
+      <c r="C416" s="89"/>
       <c r="D416" s="44"/>
       <c r="E416" s="41"/>
       <c r="F416" s="45"/>
@@ -7135,7 +7139,7 @@
       <c r="K416" s="39"/>
     </row>
     <row r="417" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B417" s="95"/>
+      <c r="B417" s="93"/>
       <c r="C417" s="90"/>
       <c r="D417" s="44"/>
       <c r="E417" s="41"/>
@@ -7147,8 +7151,8 @@
       <c r="K417" s="39"/>
     </row>
     <row r="418" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B418" s="93"/>
-      <c r="C418" s="91"/>
+      <c r="B418" s="92"/>
+      <c r="C418" s="89"/>
       <c r="D418" s="44"/>
       <c r="E418" s="41"/>
       <c r="F418" s="45"/>
@@ -7159,7 +7163,7 @@
       <c r="K418" s="39"/>
     </row>
     <row r="419" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B419" s="95"/>
+      <c r="B419" s="93"/>
       <c r="C419" s="90"/>
       <c r="D419" s="44"/>
       <c r="E419" s="41"/>
@@ -7171,8 +7175,8 @@
       <c r="K419" s="39"/>
     </row>
     <row r="420" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B420" s="93"/>
-      <c r="C420" s="91"/>
+      <c r="B420" s="92"/>
+      <c r="C420" s="89"/>
       <c r="D420" s="44"/>
       <c r="E420" s="41"/>
       <c r="F420" s="45"/>
@@ -7183,7 +7187,7 @@
       <c r="K420" s="39"/>
     </row>
     <row r="421" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B421" s="95"/>
+      <c r="B421" s="93"/>
       <c r="C421" s="90"/>
       <c r="D421" s="44"/>
       <c r="E421" s="41"/>
@@ -7195,8 +7199,8 @@
       <c r="K421" s="39"/>
     </row>
     <row r="422" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B422" s="93"/>
-      <c r="C422" s="91"/>
+      <c r="B422" s="92"/>
+      <c r="C422" s="89"/>
       <c r="D422" s="44"/>
       <c r="E422" s="41"/>
       <c r="F422" s="45"/>
@@ -7207,7 +7211,7 @@
       <c r="K422" s="39"/>
     </row>
     <row r="423" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B423" s="95"/>
+      <c r="B423" s="93"/>
       <c r="C423" s="90"/>
       <c r="D423" s="44"/>
       <c r="E423" s="41"/>
@@ -7219,8 +7223,8 @@
       <c r="K423" s="39"/>
     </row>
     <row r="424" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B424" s="93"/>
-      <c r="C424" s="91"/>
+      <c r="B424" s="92"/>
+      <c r="C424" s="89"/>
       <c r="D424" s="44"/>
       <c r="E424" s="41"/>
       <c r="F424" s="45"/>
@@ -7231,7 +7235,7 @@
       <c r="K424" s="39"/>
     </row>
     <row r="425" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B425" s="95"/>
+      <c r="B425" s="93"/>
       <c r="C425" s="90"/>
       <c r="D425" s="44"/>
       <c r="E425" s="41"/>
@@ -7243,8 +7247,8 @@
       <c r="K425" s="39"/>
     </row>
     <row r="426" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B426" s="93"/>
-      <c r="C426" s="91"/>
+      <c r="B426" s="92"/>
+      <c r="C426" s="89"/>
       <c r="D426" s="44"/>
       <c r="E426" s="41"/>
       <c r="F426" s="45"/>
@@ -7255,7 +7259,7 @@
       <c r="K426" s="39"/>
     </row>
     <row r="427" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B427" s="95"/>
+      <c r="B427" s="93"/>
       <c r="C427" s="90"/>
       <c r="D427" s="44"/>
       <c r="E427" s="41"/>
@@ -7267,8 +7271,8 @@
       <c r="K427" s="39"/>
     </row>
     <row r="428" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B428" s="93"/>
-      <c r="C428" s="91"/>
+      <c r="B428" s="92"/>
+      <c r="C428" s="89"/>
       <c r="D428" s="44"/>
       <c r="E428" s="41"/>
       <c r="F428" s="45"/>
@@ -7279,7 +7283,7 @@
       <c r="K428" s="39"/>
     </row>
     <row r="429" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B429" s="95"/>
+      <c r="B429" s="93"/>
       <c r="C429" s="90"/>
       <c r="D429" s="44"/>
       <c r="E429" s="41"/>
@@ -7291,8 +7295,8 @@
       <c r="K429" s="39"/>
     </row>
     <row r="430" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B430" s="93"/>
-      <c r="C430" s="91"/>
+      <c r="B430" s="92"/>
+      <c r="C430" s="89"/>
       <c r="D430" s="44"/>
       <c r="E430" s="41"/>
       <c r="F430" s="45"/>
@@ -7303,7 +7307,7 @@
       <c r="K430" s="39"/>
     </row>
     <row r="431" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B431" s="95"/>
+      <c r="B431" s="93"/>
       <c r="C431" s="90"/>
       <c r="D431" s="44"/>
       <c r="E431" s="41"/>
@@ -7315,8 +7319,8 @@
       <c r="K431" s="39"/>
     </row>
     <row r="432" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B432" s="93"/>
-      <c r="C432" s="91"/>
+      <c r="B432" s="92"/>
+      <c r="C432" s="89"/>
       <c r="D432" s="44"/>
       <c r="E432" s="41"/>
       <c r="F432" s="45"/>
@@ -7327,7 +7331,7 @@
       <c r="K432" s="39"/>
     </row>
     <row r="433" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B433" s="95"/>
+      <c r="B433" s="93"/>
       <c r="C433" s="90"/>
       <c r="D433" s="44"/>
       <c r="E433" s="41"/>
@@ -7339,8 +7343,8 @@
       <c r="K433" s="39"/>
     </row>
     <row r="434" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B434" s="93"/>
-      <c r="C434" s="91"/>
+      <c r="B434" s="92"/>
+      <c r="C434" s="89"/>
       <c r="D434" s="44"/>
       <c r="E434" s="41"/>
       <c r="F434" s="45"/>
@@ -7351,7 +7355,7 @@
       <c r="K434" s="39"/>
     </row>
     <row r="435" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B435" s="95"/>
+      <c r="B435" s="93"/>
       <c r="C435" s="90"/>
       <c r="D435" s="44"/>
       <c r="E435" s="41"/>
@@ -7363,8 +7367,8 @@
       <c r="K435" s="39"/>
     </row>
     <row r="436" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B436" s="93"/>
-      <c r="C436" s="91"/>
+      <c r="B436" s="92"/>
+      <c r="C436" s="89"/>
       <c r="D436" s="44"/>
       <c r="E436" s="41"/>
       <c r="F436" s="45"/>
@@ -7375,7 +7379,7 @@
       <c r="K436" s="39"/>
     </row>
     <row r="437" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B437" s="95"/>
+      <c r="B437" s="93"/>
       <c r="C437" s="90"/>
       <c r="D437" s="44"/>
       <c r="E437" s="41"/>
@@ -7387,8 +7391,8 @@
       <c r="K437" s="39"/>
     </row>
     <row r="438" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B438" s="93"/>
-      <c r="C438" s="91"/>
+      <c r="B438" s="92"/>
+      <c r="C438" s="89"/>
       <c r="D438" s="44"/>
       <c r="E438" s="41"/>
       <c r="F438" s="45"/>
@@ -7399,7 +7403,7 @@
       <c r="K438" s="39"/>
     </row>
     <row r="439" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B439" s="95"/>
+      <c r="B439" s="93"/>
       <c r="C439" s="90"/>
       <c r="D439" s="44"/>
       <c r="E439" s="41"/>
@@ -7411,8 +7415,8 @@
       <c r="K439" s="39"/>
     </row>
     <row r="440" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B440" s="93"/>
-      <c r="C440" s="91"/>
+      <c r="B440" s="92"/>
+      <c r="C440" s="89"/>
       <c r="D440" s="44"/>
       <c r="E440" s="41"/>
       <c r="F440" s="45"/>
@@ -7423,7 +7427,7 @@
       <c r="K440" s="39"/>
     </row>
     <row r="441" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B441" s="95"/>
+      <c r="B441" s="93"/>
       <c r="C441" s="90"/>
       <c r="D441" s="44"/>
       <c r="E441" s="41"/>
@@ -7435,8 +7439,8 @@
       <c r="K441" s="39"/>
     </row>
     <row r="442" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B442" s="93"/>
-      <c r="C442" s="91"/>
+      <c r="B442" s="92"/>
+      <c r="C442" s="89"/>
       <c r="D442" s="44"/>
       <c r="E442" s="41"/>
       <c r="F442" s="45"/>
@@ -7447,7 +7451,7 @@
       <c r="K442" s="39"/>
     </row>
     <row r="443" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B443" s="95"/>
+      <c r="B443" s="93"/>
       <c r="C443" s="90"/>
       <c r="D443" s="44"/>
       <c r="E443" s="41"/>
@@ -7459,8 +7463,8 @@
       <c r="K443" s="39"/>
     </row>
     <row r="444" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B444" s="93"/>
-      <c r="C444" s="91"/>
+      <c r="B444" s="92"/>
+      <c r="C444" s="89"/>
       <c r="D444" s="44"/>
       <c r="E444" s="41"/>
       <c r="F444" s="45"/>
@@ -7471,7 +7475,7 @@
       <c r="K444" s="39"/>
     </row>
     <row r="445" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B445" s="95"/>
+      <c r="B445" s="93"/>
       <c r="C445" s="90"/>
       <c r="D445" s="44"/>
       <c r="E445" s="41"/>
@@ -7483,8 +7487,8 @@
       <c r="K445" s="39"/>
     </row>
     <row r="446" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B446" s="93"/>
-      <c r="C446" s="91"/>
+      <c r="B446" s="92"/>
+      <c r="C446" s="89"/>
       <c r="D446" s="44"/>
       <c r="E446" s="41"/>
       <c r="F446" s="45"/>
@@ -7495,7 +7499,7 @@
       <c r="K446" s="39"/>
     </row>
     <row r="447" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B447" s="95"/>
+      <c r="B447" s="93"/>
       <c r="C447" s="90"/>
       <c r="D447" s="44"/>
       <c r="E447" s="41"/>
@@ -7507,8 +7511,8 @@
       <c r="K447" s="39"/>
     </row>
     <row r="448" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B448" s="93"/>
-      <c r="C448" s="91"/>
+      <c r="B448" s="92"/>
+      <c r="C448" s="89"/>
       <c r="D448" s="44"/>
       <c r="E448" s="41"/>
       <c r="F448" s="45"/>
@@ -7519,7 +7523,7 @@
       <c r="K448" s="39"/>
     </row>
     <row r="449" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B449" s="95"/>
+      <c r="B449" s="93"/>
       <c r="C449" s="90"/>
       <c r="D449" s="44"/>
       <c r="E449" s="41"/>
@@ -7531,8 +7535,8 @@
       <c r="K449" s="39"/>
     </row>
     <row r="450" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B450" s="93"/>
-      <c r="C450" s="91"/>
+      <c r="B450" s="92"/>
+      <c r="C450" s="89"/>
       <c r="D450" s="44"/>
       <c r="E450" s="41"/>
       <c r="F450" s="45"/>
@@ -7543,7 +7547,7 @@
       <c r="K450" s="39"/>
     </row>
     <row r="451" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B451" s="95"/>
+      <c r="B451" s="93"/>
       <c r="C451" s="90"/>
       <c r="D451" s="44"/>
       <c r="E451" s="41"/>
@@ -7555,8 +7559,8 @@
       <c r="K451" s="39"/>
     </row>
     <row r="452" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B452" s="93"/>
-      <c r="C452" s="91"/>
+      <c r="B452" s="92"/>
+      <c r="C452" s="89"/>
       <c r="D452" s="44"/>
       <c r="E452" s="41"/>
       <c r="F452" s="45"/>
@@ -7567,7 +7571,7 @@
       <c r="K452" s="39"/>
     </row>
     <row r="453" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B453" s="95"/>
+      <c r="B453" s="93"/>
       <c r="C453" s="90"/>
       <c r="D453" s="44"/>
       <c r="E453" s="41"/>
@@ -7579,8 +7583,8 @@
       <c r="K453" s="39"/>
     </row>
     <row r="454" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B454" s="93"/>
-      <c r="C454" s="91"/>
+      <c r="B454" s="92"/>
+      <c r="C454" s="89"/>
       <c r="D454" s="44"/>
       <c r="E454" s="41"/>
       <c r="F454" s="45"/>
@@ -7591,7 +7595,7 @@
       <c r="K454" s="39"/>
     </row>
     <row r="455" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B455" s="95"/>
+      <c r="B455" s="93"/>
       <c r="C455" s="90"/>
       <c r="D455" s="44"/>
       <c r="E455" s="41"/>
@@ -7603,8 +7607,8 @@
       <c r="K455" s="39"/>
     </row>
     <row r="456" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B456" s="93"/>
-      <c r="C456" s="91"/>
+      <c r="B456" s="92"/>
+      <c r="C456" s="89"/>
       <c r="D456" s="44"/>
       <c r="E456" s="41"/>
       <c r="F456" s="45"/>
@@ -7615,7 +7619,7 @@
       <c r="K456" s="39"/>
     </row>
     <row r="457" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B457" s="95"/>
+      <c r="B457" s="93"/>
       <c r="C457" s="90"/>
       <c r="D457" s="44"/>
       <c r="E457" s="41"/>
@@ -7627,8 +7631,8 @@
       <c r="K457" s="39"/>
     </row>
     <row r="458" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B458" s="93"/>
-      <c r="C458" s="91"/>
+      <c r="B458" s="92"/>
+      <c r="C458" s="89"/>
       <c r="D458" s="44"/>
       <c r="E458" s="41"/>
       <c r="F458" s="45"/>
@@ -7639,7 +7643,7 @@
       <c r="K458" s="39"/>
     </row>
     <row r="459" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B459" s="95"/>
+      <c r="B459" s="93"/>
       <c r="C459" s="90"/>
       <c r="D459" s="44"/>
       <c r="E459" s="41"/>
@@ -7651,8 +7655,8 @@
       <c r="K459" s="39"/>
     </row>
     <row r="460" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B460" s="93"/>
-      <c r="C460" s="91"/>
+      <c r="B460" s="92"/>
+      <c r="C460" s="89"/>
       <c r="D460" s="44"/>
       <c r="E460" s="41"/>
       <c r="F460" s="45"/>
@@ -7663,7 +7667,7 @@
       <c r="K460" s="39"/>
     </row>
     <row r="461" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B461" s="95"/>
+      <c r="B461" s="93"/>
       <c r="C461" s="90"/>
       <c r="D461" s="44"/>
       <c r="E461" s="41"/>
@@ -7675,8 +7679,8 @@
       <c r="K461" s="39"/>
     </row>
     <row r="462" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B462" s="93"/>
-      <c r="C462" s="91"/>
+      <c r="B462" s="92"/>
+      <c r="C462" s="89"/>
       <c r="D462" s="44"/>
       <c r="E462" s="41"/>
       <c r="F462" s="45"/>
@@ -7687,7 +7691,7 @@
       <c r="K462" s="39"/>
     </row>
     <row r="463" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B463" s="95"/>
+      <c r="B463" s="93"/>
       <c r="C463" s="90"/>
       <c r="D463" s="44"/>
       <c r="E463" s="41"/>
@@ -7699,8 +7703,8 @@
       <c r="K463" s="39"/>
     </row>
     <row r="464" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B464" s="93"/>
-      <c r="C464" s="91"/>
+      <c r="B464" s="92"/>
+      <c r="C464" s="89"/>
       <c r="D464" s="44"/>
       <c r="E464" s="41"/>
       <c r="F464" s="45"/>
@@ -7711,7 +7715,7 @@
       <c r="K464" s="39"/>
     </row>
     <row r="465" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B465" s="95"/>
+      <c r="B465" s="93"/>
       <c r="C465" s="90"/>
       <c r="D465" s="44"/>
       <c r="E465" s="41"/>
@@ -7723,8 +7727,8 @@
       <c r="K465" s="39"/>
     </row>
     <row r="466" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B466" s="93"/>
-      <c r="C466" s="91"/>
+      <c r="B466" s="92"/>
+      <c r="C466" s="89"/>
       <c r="D466" s="44"/>
       <c r="E466" s="41"/>
       <c r="F466" s="45"/>
@@ -7735,7 +7739,7 @@
       <c r="K466" s="39"/>
     </row>
     <row r="467" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B467" s="95"/>
+      <c r="B467" s="93"/>
       <c r="C467" s="90"/>
       <c r="D467" s="44"/>
       <c r="E467" s="41"/>
@@ -7747,8 +7751,8 @@
       <c r="K467" s="39"/>
     </row>
     <row r="468" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B468" s="93"/>
-      <c r="C468" s="91"/>
+      <c r="B468" s="92"/>
+      <c r="C468" s="89"/>
       <c r="D468" s="44"/>
       <c r="E468" s="41"/>
       <c r="F468" s="45"/>
@@ -7759,7 +7763,7 @@
       <c r="K468" s="39"/>
     </row>
     <row r="469" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B469" s="95"/>
+      <c r="B469" s="93"/>
       <c r="C469" s="90"/>
       <c r="D469" s="44"/>
       <c r="E469" s="41"/>
@@ -7771,8 +7775,8 @@
       <c r="K469" s="39"/>
     </row>
     <row r="470" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B470" s="93"/>
-      <c r="C470" s="91"/>
+      <c r="B470" s="92"/>
+      <c r="C470" s="89"/>
       <c r="D470" s="44"/>
       <c r="E470" s="41"/>
       <c r="F470" s="45"/>
@@ -7783,7 +7787,7 @@
       <c r="K470" s="39"/>
     </row>
     <row r="471" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B471" s="95"/>
+      <c r="B471" s="93"/>
       <c r="C471" s="90"/>
       <c r="D471" s="44"/>
       <c r="E471" s="41"/>
@@ -7795,8 +7799,8 @@
       <c r="K471" s="39"/>
     </row>
     <row r="472" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B472" s="93"/>
-      <c r="C472" s="91"/>
+      <c r="B472" s="92"/>
+      <c r="C472" s="89"/>
       <c r="D472" s="44"/>
       <c r="E472" s="41"/>
       <c r="F472" s="45"/>
@@ -7807,7 +7811,7 @@
       <c r="K472" s="39"/>
     </row>
     <row r="473" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B473" s="95"/>
+      <c r="B473" s="93"/>
       <c r="C473" s="90"/>
       <c r="D473" s="44"/>
       <c r="E473" s="41"/>
@@ -7821,6 +7825,522 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="540">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C462:C463"/>
+    <mergeCell ref="C464:C465"/>
+    <mergeCell ref="C466:C467"/>
+    <mergeCell ref="C468:C469"/>
+    <mergeCell ref="C470:C471"/>
+    <mergeCell ref="C472:C473"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="C454:C455"/>
+    <mergeCell ref="C456:C457"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="C438:C439"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="C442:C443"/>
+    <mergeCell ref="C444:C445"/>
+    <mergeCell ref="C446:C447"/>
+    <mergeCell ref="C448:C449"/>
+    <mergeCell ref="C426:C427"/>
+    <mergeCell ref="C428:C429"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="C432:C433"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="C436:C437"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="C416:C417"/>
+    <mergeCell ref="C418:C419"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="C422:C423"/>
+    <mergeCell ref="C424:C425"/>
+    <mergeCell ref="C402:C403"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="C412:C413"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="C398:C399"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="C368:C369"/>
+    <mergeCell ref="C370:C371"/>
+    <mergeCell ref="C372:C373"/>
+    <mergeCell ref="C374:C375"/>
+    <mergeCell ref="C376:C377"/>
+    <mergeCell ref="C354:C355"/>
+    <mergeCell ref="C356:C357"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="C348:C349"/>
+    <mergeCell ref="C350:C351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="B472:B473"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="B460:B461"/>
+    <mergeCell ref="B462:B463"/>
+    <mergeCell ref="B464:B465"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="B468:B469"/>
+    <mergeCell ref="B470:B471"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="B450:B451"/>
+    <mergeCell ref="B452:B453"/>
+    <mergeCell ref="B454:B455"/>
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="B458:B459"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="B440:B441"/>
+    <mergeCell ref="B442:B443"/>
+    <mergeCell ref="B444:B445"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="B424:B425"/>
+    <mergeCell ref="B426:B427"/>
+    <mergeCell ref="B428:B429"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="B412:B413"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="B422:B423"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B392:B393"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="B376:B377"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="B386:B387"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="B368:B369"/>
+    <mergeCell ref="B370:B371"/>
+    <mergeCell ref="B372:B373"/>
+    <mergeCell ref="B374:B375"/>
+    <mergeCell ref="B352:B353"/>
+    <mergeCell ref="B354:B355"/>
+    <mergeCell ref="B356:B357"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="B360:B361"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="B350:B351"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="B320:B321"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B16:B17"/>
@@ -7845,522 +8365,6 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="B282:B283"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="B308:B309"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="B328:B329"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="B334:B335"/>
-    <mergeCell ref="B336:B337"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="B320:B321"/>
-    <mergeCell ref="B322:B323"/>
-    <mergeCell ref="B324:B325"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="B352:B353"/>
-    <mergeCell ref="B354:B355"/>
-    <mergeCell ref="B356:B357"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="B360:B361"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="B342:B343"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="B348:B349"/>
-    <mergeCell ref="B350:B351"/>
-    <mergeCell ref="B376:B377"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="B386:B387"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="B368:B369"/>
-    <mergeCell ref="B370:B371"/>
-    <mergeCell ref="B372:B373"/>
-    <mergeCell ref="B374:B375"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B388:B389"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="B392:B393"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="B424:B425"/>
-    <mergeCell ref="B426:B427"/>
-    <mergeCell ref="B428:B429"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="B432:B433"/>
-    <mergeCell ref="B434:B435"/>
-    <mergeCell ref="B412:B413"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="B422:B423"/>
-    <mergeCell ref="B450:B451"/>
-    <mergeCell ref="B452:B453"/>
-    <mergeCell ref="B454:B455"/>
-    <mergeCell ref="B456:B457"/>
-    <mergeCell ref="B458:B459"/>
-    <mergeCell ref="B436:B437"/>
-    <mergeCell ref="B438:B439"/>
-    <mergeCell ref="B440:B441"/>
-    <mergeCell ref="B442:B443"/>
-    <mergeCell ref="B444:B445"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="B472:B473"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="B460:B461"/>
-    <mergeCell ref="B462:B463"/>
-    <mergeCell ref="B464:B465"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="B468:B469"/>
-    <mergeCell ref="B470:B471"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="C318:C319"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="C324:C325"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="C328:C329"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="C344:C345"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="C348:C349"/>
-    <mergeCell ref="C350:C351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="C368:C369"/>
-    <mergeCell ref="C370:C371"/>
-    <mergeCell ref="C372:C373"/>
-    <mergeCell ref="C374:C375"/>
-    <mergeCell ref="C376:C377"/>
-    <mergeCell ref="C354:C355"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="C364:C365"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="C396:C397"/>
-    <mergeCell ref="C398:C399"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="C436:C437"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="C416:C417"/>
-    <mergeCell ref="C418:C419"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="C422:C423"/>
-    <mergeCell ref="C424:C425"/>
-    <mergeCell ref="C402:C403"/>
-    <mergeCell ref="C404:C405"/>
-    <mergeCell ref="C406:C407"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="C412:C413"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C462:C463"/>
-    <mergeCell ref="C464:C465"/>
-    <mergeCell ref="C466:C467"/>
-    <mergeCell ref="C468:C469"/>
-    <mergeCell ref="C470:C471"/>
-    <mergeCell ref="C472:C473"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="C454:C455"/>
-    <mergeCell ref="C456:C457"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="C438:C439"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="C442:C443"/>
-    <mergeCell ref="C444:C445"/>
-    <mergeCell ref="C446:C447"/>
-    <mergeCell ref="C448:C449"/>
-    <mergeCell ref="C426:C427"/>
-    <mergeCell ref="C428:C429"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="C432:C433"/>
-    <mergeCell ref="C434:C435"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
